--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>261807.6141733884</v>
+        <v>251585.0373739073</v>
       </c>
     </row>
     <row r="7">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="D11" t="n">
-        <v>103.2089749022464</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>103.2089749022468</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>103.2089749022468</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>103.2089749022464</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.967310270625974</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.24166463162044</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>103.2089749022468</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107.3621491644614</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="D14" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>121.8916316581079</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="D15" t="n">
-        <v>107.3621491644614</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W15" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>13.60633383892401</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.7558153255374</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>121.8916316581079</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="E17" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>107.3621491644613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>107.3621491644613</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>121.8916316581078</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="V19" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W19" t="n">
-        <v>107.3621491644613</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>107.3621491644613</v>
+        <v>107.3621491644612</v>
       </c>
       <c r="E20" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>27.35360340479798</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>80.00854575966319</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>121.8916316581078</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>107.3621491644613</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W21" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>93.75581532553741</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="W22" t="n">
-        <v>121.8916316581078</v>
+        <v>13.60633383892371</v>
       </c>
       <c r="X22" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Y22" t="n">
-        <v>107.3621491644613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>318.7955859512971</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>168.489365289937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>406.1742895970049</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2414,7 +2414,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H24" t="n">
-        <v>72.65193214555642</v>
+        <v>9.103109662499151</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>41.64052685129067</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T24" t="n">
         <v>169.052871606527</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>29.69087398959226</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>93.22590247001375</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>227.8864495962592</v>
@@ -2535,13 +2535,13 @@
         <v>282.5145049675327</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>135.6891458872604</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>228.7318619112413</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>291.5846240761357</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>153.3692781363422</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D27" t="n">
-        <v>128.7880777047345</v>
+        <v>65.23925522167721</v>
       </c>
       <c r="E27" t="n">
         <v>135.0820259802211</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>41.64052685129067</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T27" t="n">
         <v>169.052871606527</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>100.5485297146404</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>99.57043343286627</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -2727,13 +2727,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.5302492315022</v>
       </c>
       <c r="I28" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>178.4552330604436</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.302255939037</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>26.81548486949667</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>74.79880609629124</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2885,7 +2885,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>117.3306764697963</v>
+        <v>53.78185398673904</v>
       </c>
       <c r="H30" t="n">
         <v>72.65193214555642</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>41.64052685129067</v>
+        <v>105.1893493343483</v>
       </c>
       <c r="T30" t="n">
         <v>169.052871606527</v>
@@ -2952,25 +2952,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>81.17021807563998</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I31" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.4552330604436</v>
+        <v>95.64782427069576</v>
       </c>
       <c r="T31" t="n">
         <v>227.8864495962592</v>
@@ -3015,10 +3015,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>230.8209548880562</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>255.085496476155</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>110.6974288669315</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -3198,16 +3198,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.6685344761369</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.8864495962592</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62.55404055625891</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>208.7597864958381</v>
       </c>
       <c r="U35" t="n">
-        <v>252.9666552009576</v>
+        <v>185.6320910757766</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H36" t="n">
-        <v>72.65193214555642</v>
+        <v>9.103109662499151</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>164.2672509249887</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.26281225427327</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.2900340234834</v>
@@ -3444,7 +3444,7 @@
         <v>142.5302492315022</v>
       </c>
       <c r="I37" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>45.62928401298861</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T37" t="n">
         <v>227.8864495962592</v>
@@ -3492,7 +3492,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>355.1856420584846</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>26.81548486949667</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>198.3035929321633</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>117.3306764697963</v>
       </c>
       <c r="H39" t="n">
-        <v>9.103109662498708</v>
+        <v>72.65193214555642</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>105.1893493343483</v>
+        <v>41.64052685129067</v>
       </c>
       <c r="T39" t="n">
         <v>169.052871606527</v>
@@ -3666,19 +3666,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>140.5536009172289</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>93.22590247001375</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.04200850945783</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5145049675327</v>
       </c>
       <c r="V40" t="n">
-        <v>158.2319345020045</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>194.3395966664858</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>26.81548486949667</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>319.3107213987272</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>86.72954861349446</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -3872,7 +3872,7 @@
         <v>105.1893493343483</v>
       </c>
       <c r="T42" t="n">
-        <v>169.052871606527</v>
+        <v>105.5040491234697</v>
       </c>
       <c r="U42" t="n">
         <v>207.8619498303119</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>101.7513580968599</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T43" t="n">
         <v>227.8864495962592</v>
@@ -3960,7 +3960,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>221.8073874231198</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>381.0400896630582</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>99.74821538277801</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>149.6836106705168</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>105.1893493343483</v>
+        <v>41.64052685129021</v>
       </c>
       <c r="T45" t="n">
-        <v>169.052871606527</v>
+        <v>169.0528716065271</v>
       </c>
       <c r="U45" t="n">
         <v>207.8619498303119</v>
@@ -4118,7 +4118,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
-        <v>164.2672509249883</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -4140,16 +4140,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>70.93506230044066</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>162.1912299465086</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T46" t="n">
         <v>227.8864495962592</v>
@@ -4203,7 +4203,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>468.7056080937622</v>
+        <v>246.0941162496347</v>
       </c>
       <c r="C11" t="n">
-        <v>350.3456060498829</v>
+        <v>127.734114205755</v>
       </c>
       <c r="D11" t="n">
-        <v>246.094116249634</v>
+        <v>127.734114205755</v>
       </c>
       <c r="E11" t="n">
-        <v>246.094116249634</v>
+        <v>127.734114205755</v>
       </c>
       <c r="F11" t="n">
-        <v>127.7341142057546</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="G11" t="n">
-        <v>127.7341142057546</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="H11" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="I11" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="J11" t="n">
-        <v>11.27063685914567</v>
+        <v>11.27063685914586</v>
       </c>
       <c r="K11" t="n">
-        <v>47.09307261692794</v>
+        <v>47.09307261692835</v>
       </c>
       <c r="L11" t="n">
-        <v>124.322840256311</v>
+        <v>115.5201170185691</v>
       </c>
       <c r="M11" t="n">
-        <v>221.0462459717465</v>
+        <v>212.2435227340049</v>
       </c>
       <c r="N11" t="n">
-        <v>322.3337129591065</v>
+        <v>313.5309897213652</v>
       </c>
       <c r="O11" t="n">
-        <v>409.3086760500144</v>
+        <v>400.5059528122733</v>
       </c>
       <c r="P11" t="n">
-        <v>461.1141442528952</v>
+        <v>461.1141442528964</v>
       </c>
       <c r="Q11" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="R11" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="S11" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="T11" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="U11" t="n">
-        <v>468.7056080937622</v>
+        <v>364.4541182935145</v>
       </c>
       <c r="V11" t="n">
-        <v>468.7056080937622</v>
+        <v>246.0941162496347</v>
       </c>
       <c r="W11" t="n">
-        <v>468.7056080937622</v>
+        <v>246.0941162496347</v>
       </c>
       <c r="X11" t="n">
-        <v>468.7056080937622</v>
+        <v>246.0941162496347</v>
       </c>
       <c r="Y11" t="n">
-        <v>468.7056080937622</v>
+        <v>246.0941162496347</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>246.094116249634</v>
+        <v>231.9856040060043</v>
       </c>
       <c r="C12" t="n">
-        <v>246.094116249634</v>
+        <v>231.9856040060043</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7341142057546</v>
+        <v>113.6256019621245</v>
       </c>
       <c r="E12" t="n">
-        <v>127.7341142057546</v>
+        <v>113.6256019621245</v>
       </c>
       <c r="F12" t="n">
-        <v>9.374112161875244</v>
+        <v>113.6256019621245</v>
       </c>
       <c r="G12" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="H12" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="I12" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="J12" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="K12" t="n">
-        <v>41.19958774673809</v>
+        <v>41.19958774673826</v>
       </c>
       <c r="L12" t="n">
-        <v>114.1025189290639</v>
+        <v>114.1025189290643</v>
       </c>
       <c r="M12" t="n">
-        <v>211.758765321695</v>
+        <v>211.7587653216958</v>
       </c>
       <c r="N12" t="n">
-        <v>321.3653011663448</v>
+        <v>321.3653011663457</v>
       </c>
       <c r="O12" t="n">
-        <v>407.1910012101565</v>
+        <v>407.1910012101577</v>
       </c>
       <c r="P12" t="n">
-        <v>463.5071989645585</v>
+        <v>463.5071989645598</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="R12" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="S12" t="n">
-        <v>350.3456060498829</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="T12" t="n">
-        <v>350.3456060498829</v>
+        <v>350.345606049884</v>
       </c>
       <c r="U12" t="n">
-        <v>350.3456060498829</v>
+        <v>350.345606049884</v>
       </c>
       <c r="V12" t="n">
-        <v>350.3456060498829</v>
+        <v>231.9856040060043</v>
       </c>
       <c r="W12" t="n">
-        <v>350.3456060498829</v>
+        <v>231.9856040060043</v>
       </c>
       <c r="X12" t="n">
-        <v>246.094116249634</v>
+        <v>231.9856040060043</v>
       </c>
       <c r="Y12" t="n">
-        <v>246.094116249634</v>
+        <v>231.9856040060043</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.4320013241237</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="C13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="D13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="E13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="F13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="G13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="H13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="I13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="J13" t="n">
-        <v>9.374112161875244</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="K13" t="n">
-        <v>125.3787501650814</v>
+        <v>125.3787501650818</v>
       </c>
       <c r="L13" t="n">
-        <v>131.6128044150002</v>
+        <v>131.6128044150007</v>
       </c>
       <c r="M13" t="n">
-        <v>140.3036245018516</v>
+        <v>247.6174424182072</v>
       </c>
       <c r="N13" t="n">
-        <v>180.8758896981449</v>
+        <v>352.7009700905572</v>
       </c>
       <c r="O13" t="n">
-        <v>296.8805277013511</v>
+        <v>352.7009700905572</v>
       </c>
       <c r="P13" t="n">
-        <v>412.8851657045572</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="Q13" t="n">
-        <v>468.7056080937622</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="R13" t="n">
-        <v>373.5120074557618</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="S13" t="n">
-        <v>255.1520054118824</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="T13" t="n">
-        <v>136.7920033680031</v>
+        <v>468.7056080937637</v>
       </c>
       <c r="U13" t="n">
-        <v>136.7920033680031</v>
+        <v>364.4541182935145</v>
       </c>
       <c r="V13" t="n">
-        <v>136.7920033680031</v>
+        <v>246.0941162496347</v>
       </c>
       <c r="W13" t="n">
-        <v>136.7920033680031</v>
+        <v>127.734114205755</v>
       </c>
       <c r="X13" t="n">
-        <v>136.7920033680031</v>
+        <v>9.374112161875274</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.4320013241237</v>
+        <v>9.374112161875274</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.1199113147937</v>
+        <v>241.320806111001</v>
       </c>
       <c r="C14" t="n">
-        <v>379.1199113147937</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="D14" t="n">
-        <v>255.9970510540787</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="E14" t="n">
-        <v>255.9970510540787</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="F14" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G14" t="n">
-        <v>132.8741907933637</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H14" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I14" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J14" t="n">
-        <v>13.67191254441019</v>
+        <v>13.67191254441057</v>
       </c>
       <c r="K14" t="n">
-        <v>52.52788553388302</v>
+        <v>52.52788553388331</v>
       </c>
       <c r="L14" t="n">
-        <v>124.7183011151471</v>
+        <v>124.7183011151469</v>
       </c>
       <c r="M14" t="n">
-        <v>225.6291823919091</v>
+        <v>225.6291823919088</v>
       </c>
       <c r="N14" t="n">
-        <v>331.1718826730489</v>
+        <v>331.1718826730483</v>
       </c>
       <c r="O14" t="n">
-        <v>422.1649418990627</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P14" t="n">
-        <v>477.399762191317</v>
+        <v>477.3997621913163</v>
       </c>
       <c r="Q14" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R14" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S14" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T14" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="U14" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="V14" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="W14" t="n">
-        <v>487.5665266324315</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="X14" t="n">
-        <v>487.5665266324315</v>
+        <v>241.320806111001</v>
       </c>
       <c r="Y14" t="n">
-        <v>487.5665266324315</v>
+        <v>241.320806111001</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241.3208061110014</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="C15" t="n">
-        <v>118.1979458502864</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="D15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J15" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K15" t="n">
-        <v>43.63722270065739</v>
+        <v>43.63722270065733</v>
       </c>
       <c r="L15" t="n">
-        <v>119.3106382502222</v>
+        <v>119.310638250222</v>
       </c>
       <c r="M15" t="n">
-        <v>220.1999092241158</v>
+        <v>220.1999092241154</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1250381905289</v>
+        <v>333.1250381905284</v>
       </c>
       <c r="O15" t="n">
-        <v>421.9866026009624</v>
+        <v>421.9866026009618</v>
       </c>
       <c r="P15" t="n">
-        <v>480.7393491561086</v>
+        <v>480.739349156108</v>
       </c>
       <c r="Q15" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R15" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S15" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T15" t="n">
-        <v>487.5665266324315</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="U15" t="n">
-        <v>487.5665266324315</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="V15" t="n">
-        <v>487.5665266324315</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="W15" t="n">
-        <v>364.4436663717165</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="X15" t="n">
-        <v>364.4436663717165</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="Y15" t="n">
-        <v>364.4436663717165</v>
+        <v>132.8741907933635</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.49510208711733</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="C16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="D16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I16" t="n">
-        <v>9.75133053264863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J16" t="n">
-        <v>24.97459687068097</v>
+        <v>24.97459687068093</v>
       </c>
       <c r="K16" t="n">
-        <v>145.6473122122077</v>
+        <v>145.6473122122075</v>
       </c>
       <c r="L16" t="n">
-        <v>266.3200275537345</v>
+        <v>266.3200275537341</v>
       </c>
       <c r="M16" t="n">
-        <v>386.9927428952613</v>
+        <v>276.6877025918475</v>
       </c>
       <c r="N16" t="n">
-        <v>429.9878088814727</v>
+        <v>310.1776134672576</v>
       </c>
       <c r="O16" t="n">
-        <v>430.850328808785</v>
+        <v>430.8503288087842</v>
       </c>
       <c r="P16" t="n">
-        <v>430.850328808785</v>
+        <v>430.8503288087842</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5665266324315</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R16" t="n">
-        <v>392.8636828692624</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S16" t="n">
-        <v>392.8636828692624</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T16" t="n">
-        <v>269.7408226085474</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="U16" t="n">
-        <v>269.7408226085474</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="V16" t="n">
-        <v>269.7408226085474</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="W16" t="n">
-        <v>146.6179623478324</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="X16" t="n">
-        <v>146.6179623478324</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.49510208711733</v>
+        <v>9.751330532648614</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="C17" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="D17" t="n">
-        <v>487.566526632431</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="E17" t="n">
-        <v>364.4436663717161</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="F17" t="n">
-        <v>241.3208061110012</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="G17" t="n">
-        <v>118.1979458502863</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="H17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I17" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J17" t="n">
-        <v>13.67191254441036</v>
+        <v>13.67191254441013</v>
       </c>
       <c r="K17" t="n">
-        <v>52.52788553388328</v>
+        <v>52.52788553388314</v>
       </c>
       <c r="L17" t="n">
-        <v>124.718301115147</v>
+        <v>124.7183011151467</v>
       </c>
       <c r="M17" t="n">
-        <v>225.6291823919089</v>
+        <v>225.6291823919087</v>
       </c>
       <c r="N17" t="n">
-        <v>331.1718826730485</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O17" t="n">
-        <v>422.1649418990623</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P17" t="n">
-        <v>477.3997621913166</v>
+        <v>477.3997621913163</v>
       </c>
       <c r="Q17" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R17" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S17" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T17" t="n">
-        <v>487.566526632431</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="U17" t="n">
-        <v>487.566526632431</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="V17" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="W17" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="X17" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="Y17" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.8741907933635</v>
+        <v>241.320806111001</v>
       </c>
       <c r="C18" t="n">
-        <v>132.8741907933635</v>
+        <v>241.320806111001</v>
       </c>
       <c r="D18" t="n">
-        <v>132.8741907933635</v>
+        <v>241.320806111001</v>
       </c>
       <c r="E18" t="n">
-        <v>9.751330532648621</v>
+        <v>241.320806111001</v>
       </c>
       <c r="F18" t="n">
-        <v>9.751330532648621</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="G18" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H18" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I18" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J18" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K18" t="n">
-        <v>43.63722270065729</v>
+        <v>43.63722270065726</v>
       </c>
       <c r="L18" t="n">
-        <v>119.310638250222</v>
+        <v>119.3106382502219</v>
       </c>
       <c r="M18" t="n">
-        <v>220.1999092241156</v>
+        <v>220.1999092241153</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1250381905286</v>
+        <v>333.1250381905284</v>
       </c>
       <c r="O18" t="n">
-        <v>421.986602600962</v>
+        <v>421.9866026009618</v>
       </c>
       <c r="P18" t="n">
-        <v>480.7393491561083</v>
+        <v>480.739349156108</v>
       </c>
       <c r="Q18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T18" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="U18" t="n">
-        <v>364.4436663717161</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="V18" t="n">
-        <v>241.3208061110012</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="W18" t="n">
-        <v>132.8741907933635</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="X18" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="Y18" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717158</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="C19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="D19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J19" t="n">
-        <v>9.751330532648621</v>
+        <v>24.97459687068093</v>
       </c>
       <c r="K19" t="n">
-        <v>9.751330532648621</v>
+        <v>145.6473122122075</v>
       </c>
       <c r="L19" t="n">
-        <v>68.83218278420451</v>
+        <v>153.4717675450549</v>
       </c>
       <c r="M19" t="n">
-        <v>189.5048981257312</v>
+        <v>230.992549211911</v>
       </c>
       <c r="N19" t="n">
-        <v>310.1776134672579</v>
+        <v>246.2210959493775</v>
       </c>
       <c r="O19" t="n">
-        <v>430.8503288087845</v>
+        <v>366.8938112909041</v>
       </c>
       <c r="P19" t="n">
-        <v>430.8503288087845</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="Q19" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R19" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S19" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T19" t="n">
-        <v>364.4436663717161</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="U19" t="n">
-        <v>241.3208061110012</v>
+        <v>379.1199113147931</v>
       </c>
       <c r="V19" t="n">
-        <v>118.1979458502863</v>
+        <v>255.9970510540783</v>
       </c>
       <c r="W19" t="n">
-        <v>9.751330532648621</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="X19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>487.566526632431</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="C20" t="n">
-        <v>364.4436663717161</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="D20" t="n">
-        <v>255.9970510540784</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E20" t="n">
-        <v>132.8741907933635</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F20" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G20" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H20" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I20" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J20" t="n">
-        <v>13.67191254441002</v>
+        <v>13.67191254441011</v>
       </c>
       <c r="K20" t="n">
-        <v>52.52788553388291</v>
+        <v>52.52788553388288</v>
       </c>
       <c r="L20" t="n">
-        <v>124.7183011151466</v>
+        <v>124.7183011151465</v>
       </c>
       <c r="M20" t="n">
         <v>225.6291823919086</v>
       </c>
       <c r="N20" t="n">
-        <v>331.1718826730485</v>
+        <v>331.1718826730482</v>
       </c>
       <c r="O20" t="n">
-        <v>422.1649418990623</v>
+        <v>422.1649418990621</v>
       </c>
       <c r="P20" t="n">
-        <v>477.3997621913167</v>
+        <v>477.3997621913163</v>
       </c>
       <c r="Q20" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R20" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S20" t="n">
-        <v>487.566526632431</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="T20" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="U20" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="V20" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="W20" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="X20" t="n">
-        <v>487.566526632431</v>
+        <v>241.320806111001</v>
       </c>
       <c r="Y20" t="n">
-        <v>487.566526632431</v>
+        <v>118.1979458502862</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.751330532648621</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="C21" t="n">
-        <v>9.751330532648621</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="D21" t="n">
-        <v>9.751330532648621</v>
+        <v>90.56804342119729</v>
       </c>
       <c r="E21" t="n">
-        <v>9.751330532648621</v>
+        <v>90.56804342119729</v>
       </c>
       <c r="F21" t="n">
-        <v>9.751330532648621</v>
+        <v>90.56804342119729</v>
       </c>
       <c r="G21" t="n">
-        <v>9.751330532648621</v>
+        <v>90.56804342119729</v>
       </c>
       <c r="H21" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I21" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J21" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="K21" t="n">
-        <v>43.63722270065731</v>
+        <v>43.63722270065728</v>
       </c>
       <c r="L21" t="n">
         <v>119.310638250222</v>
       </c>
       <c r="M21" t="n">
-        <v>220.1999092241156</v>
+        <v>220.1999092241155</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1250381905287</v>
+        <v>333.1250381905286</v>
       </c>
       <c r="O21" t="n">
         <v>421.986602600962</v>
@@ -5855,28 +5855,28 @@
         <v>487.566526632431</v>
       </c>
       <c r="R21" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="S21" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="T21" t="n">
-        <v>364.4436663717161</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="U21" t="n">
-        <v>255.9970510540784</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="V21" t="n">
-        <v>132.8741907933635</v>
+        <v>364.4436663717158</v>
       </c>
       <c r="W21" t="n">
-        <v>9.751330532648621</v>
+        <v>241.320806111001</v>
       </c>
       <c r="X21" t="n">
-        <v>9.751330532648621</v>
+        <v>118.1979458502862</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.751330532648621</v>
+        <v>118.1979458502862</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="C22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="D22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="E22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="F22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="G22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="H22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="I22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="J22" t="n">
-        <v>24.97459687068095</v>
+        <v>24.97459687068094</v>
       </c>
       <c r="K22" t="n">
-        <v>124.6858606805388</v>
+        <v>145.6473122122075</v>
       </c>
       <c r="L22" t="n">
-        <v>245.3585760220655</v>
+        <v>245.3585760220653</v>
       </c>
       <c r="M22" t="n">
-        <v>366.0312913635922</v>
+        <v>366.0312913635919</v>
       </c>
       <c r="N22" t="n">
-        <v>486.7040067051188</v>
+        <v>486.7040067051185</v>
       </c>
       <c r="O22" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="P22" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="Q22" t="n">
-        <v>487.566526632431</v>
+        <v>487.5665266324307</v>
       </c>
       <c r="R22" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="S22" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="T22" t="n">
-        <v>487.566526632431</v>
+        <v>392.8636828692615</v>
       </c>
       <c r="U22" t="n">
-        <v>364.4436663717161</v>
+        <v>269.7408226085467</v>
       </c>
       <c r="V22" t="n">
-        <v>364.4436663717161</v>
+        <v>146.6179623478318</v>
       </c>
       <c r="W22" t="n">
-        <v>241.3208061110012</v>
+        <v>132.8741907933635</v>
       </c>
       <c r="X22" t="n">
-        <v>118.1979458502863</v>
+        <v>9.751330532648614</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.751330532648621</v>
+        <v>9.751330532648614</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.630521775701</v>
+        <v>748.2637422079883</v>
       </c>
       <c r="C23" t="n">
-        <v>918.4550202786318</v>
+        <v>748.2637422079883</v>
       </c>
       <c r="D23" t="n">
-        <v>918.4550202786318</v>
+        <v>748.2637422079883</v>
       </c>
       <c r="E23" t="n">
-        <v>918.4550202786318</v>
+        <v>748.2637422079883</v>
       </c>
       <c r="F23" t="n">
         <v>748.2637422079883</v>
@@ -6016,25 +6016,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S23" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="U23" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="V23" t="n">
-        <v>2072.082161874357</v>
+        <v>1830.731125691793</v>
       </c>
       <c r="W23" t="n">
-        <v>1701.083126842645</v>
+        <v>1459.73209066008</v>
       </c>
       <c r="X23" t="n">
-        <v>1311.630521775701</v>
+        <v>1070.279485593137</v>
       </c>
       <c r="Y23" t="n">
-        <v>1311.630521775701</v>
+        <v>1070.279485593137</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073001</v>
       </c>
       <c r="C24" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673924</v>
       </c>
       <c r="D24" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888727</v>
       </c>
       <c r="E24" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997604</v>
       </c>
       <c r="F24" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828922</v>
       </c>
       <c r="G24" t="n">
-        <v>116.8425487457821</v>
+        <v>52.65181896491615</v>
       </c>
       <c r="H24" t="n">
         <v>43.45675869976549</v>
@@ -6068,25 +6068,25 @@
         <v>43.45675869976549</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8064269329424</v>
+        <v>299.5414219126698</v>
       </c>
       <c r="K24" t="n">
-        <v>363.3317596734933</v>
+        <v>455.1984126257572</v>
       </c>
       <c r="L24" t="n">
-        <v>602.7414447038446</v>
+        <v>694.6080976561086</v>
       </c>
       <c r="M24" t="n">
-        <v>894.7032192209165</v>
+        <v>986.5698721731804</v>
       </c>
       <c r="N24" t="n">
-        <v>1203.757972345317</v>
+        <v>1295.624625297581</v>
       </c>
       <c r="O24" t="n">
-        <v>1472.039825828051</v>
+        <v>1563.906478780315</v>
       </c>
       <c r="P24" t="n">
-        <v>1674.793172335818</v>
+        <v>1766.659825288082</v>
       </c>
       <c r="Q24" t="n">
         <v>2102.324300547568</v>
@@ -6095,25 +6095,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S24" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973781</v>
       </c>
       <c r="T24" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603552</v>
       </c>
       <c r="U24" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V24" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489456</v>
       </c>
       <c r="W24" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X24" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y24" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482615</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.6437808595799</v>
+        <v>650.7792845784967</v>
       </c>
       <c r="C25" t="n">
-        <v>761.4386629255691</v>
+        <v>480.5741666444859</v>
       </c>
       <c r="D25" t="n">
-        <v>761.4386629255691</v>
+        <v>324.9410535470006</v>
       </c>
       <c r="E25" t="n">
-        <v>605.8798507847716</v>
+        <v>294.9502717393317</v>
       </c>
       <c r="F25" t="n">
-        <v>448.5539159977446</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="G25" t="n">
-        <v>281.5942856709937</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="H25" t="n">
         <v>137.6243369523046</v>
@@ -6174,25 +6174,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S25" t="n">
-        <v>1992.580123816109</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T25" t="n">
-        <v>1762.391790890595</v>
+        <v>1942.64960206276</v>
       </c>
       <c r="U25" t="n">
-        <v>1477.023604054703</v>
+        <v>1657.281415226868</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.023604054703</v>
+        <v>1391.302070047693</v>
       </c>
       <c r="W25" t="n">
-        <v>1477.023604054703</v>
+        <v>1107.97166797887</v>
       </c>
       <c r="X25" t="n">
-        <v>1339.963860734238</v>
+        <v>873.8913457618534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1116.851799550881</v>
+        <v>650.7792845784967</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>831.4814123665533</v>
+        <v>569.028966767823</v>
       </c>
       <c r="C26" t="n">
-        <v>831.4814123665533</v>
+        <v>569.028966767823</v>
       </c>
       <c r="D26" t="n">
-        <v>446.040283583221</v>
+        <v>569.028966767823</v>
       </c>
       <c r="E26" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="F26" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="G26" t="n">
-        <v>43.45675869976549</v>
+        <v>337.9866820089935</v>
       </c>
       <c r="H26" t="n">
         <v>43.45675869976549</v>
@@ -6253,25 +6253,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S26" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="T26" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="U26" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="V26" t="n">
-        <v>2172.837934988274</v>
+        <v>1729.975352577876</v>
       </c>
       <c r="W26" t="n">
-        <v>2017.919472224292</v>
+        <v>1358.976317546163</v>
       </c>
       <c r="X26" t="n">
-        <v>1628.466867157349</v>
+        <v>969.5237124792199</v>
       </c>
       <c r="Y26" t="n">
-        <v>1231.97615807795</v>
+        <v>969.5237124792199</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073001</v>
       </c>
       <c r="C27" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673924</v>
       </c>
       <c r="D27" t="n">
         <v>496.2366805697386</v>
@@ -6305,52 +6305,52 @@
         <v>47.1535132291912</v>
       </c>
       <c r="J27" t="n">
-        <v>220.3014007997444</v>
+        <v>303.2381764420956</v>
       </c>
       <c r="K27" t="n">
-        <v>758.0787897093423</v>
+        <v>458.8951671551829</v>
       </c>
       <c r="L27" t="n">
-        <v>997.4884747396937</v>
+        <v>698.3048521855342</v>
       </c>
       <c r="M27" t="n">
-        <v>1289.450249256766</v>
+        <v>990.266626702606</v>
       </c>
       <c r="N27" t="n">
-        <v>1598.505002381166</v>
+        <v>1299.321379827006</v>
       </c>
       <c r="O27" t="n">
-        <v>1866.7868558639</v>
+        <v>1567.60323330974</v>
       </c>
       <c r="P27" t="n">
-        <v>2069.540202371667</v>
+        <v>1770.356579817507</v>
       </c>
       <c r="Q27" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R27" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="S27" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973781</v>
       </c>
       <c r="T27" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603552</v>
       </c>
       <c r="U27" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V27" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489456</v>
       </c>
       <c r="W27" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X27" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y27" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482615</v>
       </c>
     </row>
     <row r="28">
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>862.0148583123027</v>
+        <v>826.1496853777751</v>
       </c>
       <c r="C28" t="n">
-        <v>862.0148583123027</v>
+        <v>655.9445674437643</v>
       </c>
       <c r="D28" t="n">
-        <v>761.4386629255691</v>
+        <v>500.3114543462791</v>
       </c>
       <c r="E28" t="n">
-        <v>605.8798507847716</v>
+        <v>344.7526422054816</v>
       </c>
       <c r="F28" t="n">
-        <v>448.5539159977446</v>
+        <v>187.4267074184545</v>
       </c>
       <c r="G28" t="n">
-        <v>281.5942856709937</v>
+        <v>187.4267074184545</v>
       </c>
       <c r="H28" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I28" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="J28" t="n">
-        <v>103.3775994115467</v>
+        <v>103.3775994115472</v>
       </c>
       <c r="K28" t="n">
-        <v>332.6083939857836</v>
+        <v>332.6083939857839</v>
       </c>
       <c r="L28" t="n">
-        <v>685.3518517120934</v>
+        <v>685.3518517120938</v>
       </c>
       <c r="M28" t="n">
         <v>1070.51236408673</v>
@@ -6408,28 +6408,28 @@
         <v>2172.837934988274</v>
       </c>
       <c r="R28" t="n">
-        <v>2107.138936493872</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S28" t="n">
-        <v>1926.881125321707</v>
+        <v>1992.580123816109</v>
       </c>
       <c r="T28" t="n">
-        <v>1696.692792396193</v>
+        <v>1762.391790890595</v>
       </c>
       <c r="U28" t="n">
-        <v>1411.324605560301</v>
+        <v>1477.023604054703</v>
       </c>
       <c r="V28" t="n">
-        <v>1145.345260381125</v>
+        <v>1211.044258875527</v>
       </c>
       <c r="W28" t="n">
-        <v>862.0148583123027</v>
+        <v>927.7138568067048</v>
       </c>
       <c r="X28" t="n">
-        <v>862.0148583123027</v>
+        <v>927.7138568067048</v>
       </c>
       <c r="Y28" t="n">
-        <v>862.0148583123027</v>
+        <v>927.7138568067048</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>43.45675869976549</v>
+        <v>1300.298130605265</v>
       </c>
       <c r="C29" t="n">
-        <v>43.45675869976549</v>
+        <v>1300.298130605265</v>
       </c>
       <c r="D29" t="n">
-        <v>43.45675869976549</v>
+        <v>1300.298130605265</v>
       </c>
       <c r="E29" t="n">
-        <v>43.45675869976549</v>
+        <v>897.7146057218096</v>
       </c>
       <c r="F29" t="n">
-        <v>43.45675869976549</v>
+        <v>480.8201672517873</v>
       </c>
       <c r="G29" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279244</v>
       </c>
       <c r="H29" t="n">
-        <v>43.45675869976549</v>
+        <v>70.54310705279244</v>
       </c>
       <c r="I29" t="n">
         <v>43.45675869976549</v>
@@ -6493,22 +6493,22 @@
         <v>2172.837934988274</v>
       </c>
       <c r="T29" t="n">
-        <v>1961.969463780357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="U29" t="n">
-        <v>1706.447589839996</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="V29" t="n">
-        <v>1364.340780543514</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="W29" t="n">
-        <v>993.3417455118015</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="X29" t="n">
-        <v>603.8891404448583</v>
+        <v>2097.283585396061</v>
       </c>
       <c r="Y29" t="n">
-        <v>207.3984313654594</v>
+        <v>1700.792876316662</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073001</v>
       </c>
       <c r="C30" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673924</v>
       </c>
       <c r="D30" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888727</v>
       </c>
       <c r="E30" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997604</v>
       </c>
       <c r="F30" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828922</v>
       </c>
       <c r="G30" t="n">
         <v>116.8425487457821</v>
@@ -6542,52 +6542,52 @@
         <v>43.45675869976549</v>
       </c>
       <c r="J30" t="n">
-        <v>299.5414219126698</v>
+        <v>277.9784358170097</v>
       </c>
       <c r="K30" t="n">
-        <v>455.1984126257572</v>
+        <v>433.635426530097</v>
       </c>
       <c r="L30" t="n">
-        <v>694.6080976561086</v>
+        <v>673.0451115604484</v>
       </c>
       <c r="M30" t="n">
-        <v>986.5698721731804</v>
+        <v>965.0068860775202</v>
       </c>
       <c r="N30" t="n">
-        <v>1295.624625297581</v>
+        <v>1274.061639201921</v>
       </c>
       <c r="O30" t="n">
-        <v>1563.906478780315</v>
+        <v>1542.343492684655</v>
       </c>
       <c r="P30" t="n">
-        <v>1766.659825288082</v>
+        <v>1745.096839192422</v>
       </c>
       <c r="Q30" t="n">
-        <v>2102.324300547568</v>
+        <v>2172.627967404172</v>
       </c>
       <c r="R30" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="S30" t="n">
-        <v>2130.776796754647</v>
+        <v>2066.586066973781</v>
       </c>
       <c r="T30" t="n">
-        <v>1960.016320384418</v>
+        <v>1895.825590603552</v>
       </c>
       <c r="U30" t="n">
-        <v>1750.054754899254</v>
+        <v>1685.864025118389</v>
       </c>
       <c r="V30" t="n">
-        <v>1527.514753270322</v>
+        <v>1463.324023489456</v>
       </c>
       <c r="W30" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X30" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y30" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482615</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>219.6144562206279</v>
+        <v>826.1496853777751</v>
       </c>
       <c r="C31" t="n">
-        <v>137.6243369523046</v>
+        <v>655.9445674437643</v>
       </c>
       <c r="D31" t="n">
-        <v>137.6243369523046</v>
+        <v>500.3114543462791</v>
       </c>
       <c r="E31" t="n">
-        <v>137.6243369523046</v>
+        <v>344.7526422054816</v>
       </c>
       <c r="F31" t="n">
-        <v>137.6243369523046</v>
+        <v>187.4267074184545</v>
       </c>
       <c r="G31" t="n">
-        <v>137.6243369523046</v>
+        <v>187.4267074184545</v>
       </c>
       <c r="H31" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I31" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="J31" t="n">
-        <v>103.3775994115466</v>
+        <v>103.3775994115472</v>
       </c>
       <c r="K31" t="n">
-        <v>332.6083939857833</v>
+        <v>332.6083939857838</v>
       </c>
       <c r="L31" t="n">
-        <v>685.3518517120932</v>
+        <v>685.3518517120937</v>
       </c>
       <c r="M31" t="n">
-        <v>1070.512364086729</v>
+        <v>1070.51236408673</v>
       </c>
       <c r="N31" t="n">
-        <v>1447.842273396849</v>
+        <v>1447.84227339685</v>
       </c>
       <c r="O31" t="n">
         <v>1789.86700717274</v>
@@ -6645,28 +6645,28 @@
         <v>2172.837934988274</v>
       </c>
       <c r="R31" t="n">
-        <v>2107.138936493872</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S31" t="n">
-        <v>1926.881125321707</v>
+        <v>2076.223971078481</v>
       </c>
       <c r="T31" t="n">
-        <v>1696.692792396193</v>
+        <v>1846.035638152966</v>
       </c>
       <c r="U31" t="n">
-        <v>1411.324605560301</v>
+        <v>1560.667451317075</v>
       </c>
       <c r="V31" t="n">
-        <v>1145.345260381125</v>
+        <v>1294.688106137899</v>
       </c>
       <c r="W31" t="n">
-        <v>862.0148583123027</v>
+        <v>1011.357704069076</v>
       </c>
       <c r="X31" t="n">
-        <v>627.9345360952858</v>
+        <v>1011.357704069076</v>
       </c>
       <c r="Y31" t="n">
-        <v>404.8224749119291</v>
+        <v>1011.357704069076</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>436.6322601968349</v>
+        <v>845.79232595312</v>
       </c>
       <c r="C32" t="n">
-        <v>43.45675869976549</v>
+        <v>845.79232595312</v>
       </c>
       <c r="D32" t="n">
-        <v>43.45675869976549</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="E32" t="n">
-        <v>43.45675869976549</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="F32" t="n">
         <v>43.45675869976549</v>
@@ -6727,25 +6727,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S32" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="T32" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="U32" t="n">
-        <v>1939.685455303369</v>
+        <v>1816.560287933996</v>
       </c>
       <c r="V32" t="n">
-        <v>1597.578646006888</v>
+        <v>1474.453478637514</v>
       </c>
       <c r="W32" t="n">
-        <v>1226.579610975175</v>
+        <v>1103.454443605802</v>
       </c>
       <c r="X32" t="n">
-        <v>837.1270059082318</v>
+        <v>845.79232595312</v>
       </c>
       <c r="Y32" t="n">
-        <v>837.1270059082318</v>
+        <v>845.79232595312</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>43.45675869976549</v>
       </c>
       <c r="I33" t="n">
-        <v>43.45675869976549</v>
+        <v>47.1535132291912</v>
       </c>
       <c r="J33" t="n">
-        <v>104.8064269329424</v>
+        <v>108.5031814623681</v>
       </c>
       <c r="K33" t="n">
-        <v>260.4634176460298</v>
+        <v>264.1601721754555</v>
       </c>
       <c r="L33" t="n">
-        <v>673.0451115604484</v>
+        <v>503.5698572058068</v>
       </c>
       <c r="M33" t="n">
-        <v>965.0068860775202</v>
+        <v>795.5316317228787</v>
       </c>
       <c r="N33" t="n">
-        <v>1274.061639201921</v>
+        <v>1104.586384847279</v>
       </c>
       <c r="O33" t="n">
-        <v>1542.343492684655</v>
+        <v>1372.868238330013</v>
       </c>
       <c r="P33" t="n">
         <v>1745.096839192422</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>981.1277856486015</v>
+        <v>592.7862109092764</v>
       </c>
       <c r="C34" t="n">
-        <v>810.9226677145907</v>
+        <v>592.7862109092764</v>
       </c>
       <c r="D34" t="n">
-        <v>655.2895546171055</v>
+        <v>437.1530978117912</v>
       </c>
       <c r="E34" t="n">
-        <v>499.730742476308</v>
+        <v>281.5942856709937</v>
       </c>
       <c r="F34" t="n">
-        <v>342.404807689281</v>
+        <v>281.5942856709937</v>
       </c>
       <c r="G34" t="n">
-        <v>175.44517736253</v>
+        <v>281.5942856709937</v>
       </c>
       <c r="H34" t="n">
-        <v>43.45675869976549</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="I34" t="n">
         <v>43.45675869976549</v>
@@ -6861,49 +6861,49 @@
         <v>103.3775994115472</v>
       </c>
       <c r="K34" t="n">
-        <v>332.6083939857838</v>
+        <v>332.6083939857839</v>
       </c>
       <c r="L34" t="n">
-        <v>685.3518517120933</v>
+        <v>685.3518517120938</v>
       </c>
       <c r="M34" t="n">
         <v>1070.51236408673</v>
       </c>
       <c r="N34" t="n">
-        <v>1447.842273396849</v>
+        <v>1447.84227339685</v>
       </c>
       <c r="O34" t="n">
-        <v>1789.86700717274</v>
+        <v>1789.867007172741</v>
       </c>
       <c r="P34" t="n">
         <v>2063.182382971931</v>
       </c>
       <c r="Q34" t="n">
-        <v>2172.837934988274</v>
+        <v>2172.837934988275</v>
       </c>
       <c r="R34" t="n">
-        <v>2172.837934988274</v>
+        <v>2172.837934988275</v>
       </c>
       <c r="S34" t="n">
-        <v>2172.837934988274</v>
+        <v>1992.58012381611</v>
       </c>
       <c r="T34" t="n">
-        <v>2172.837934988274</v>
+        <v>1762.391790890595</v>
       </c>
       <c r="U34" t="n">
-        <v>2172.837934988274</v>
+        <v>1477.023604054703</v>
       </c>
       <c r="V34" t="n">
-        <v>1906.858589809099</v>
+        <v>1211.044258875528</v>
       </c>
       <c r="W34" t="n">
-        <v>1623.528187740276</v>
+        <v>927.7138568067053</v>
       </c>
       <c r="X34" t="n">
-        <v>1389.447865523259</v>
+        <v>927.7138568067053</v>
       </c>
       <c r="Y34" t="n">
-        <v>1166.335804339903</v>
+        <v>704.6017956233486</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.45675869976549</v>
+        <v>1273.211782252238</v>
       </c>
       <c r="C35" t="n">
-        <v>43.45675869976549</v>
+        <v>1273.211782252238</v>
       </c>
       <c r="D35" t="n">
-        <v>43.45675869976549</v>
+        <v>1273.211782252238</v>
       </c>
       <c r="E35" t="n">
-        <v>43.45675869976549</v>
+        <v>870.6282573687827</v>
       </c>
       <c r="F35" t="n">
-        <v>43.45675869976549</v>
+        <v>453.7338188987604</v>
       </c>
       <c r="G35" t="n">
         <v>43.45675869976549</v>
@@ -6937,22 +6937,22 @@
         <v>43.45675869976549</v>
       </c>
       <c r="J35" t="n">
-        <v>166.9995980355627</v>
+        <v>166.999598035562</v>
       </c>
       <c r="K35" t="n">
-        <v>385.1383258824828</v>
+        <v>385.1383258824819</v>
       </c>
       <c r="L35" t="n">
-        <v>679.744852130033</v>
+        <v>679.7448521300319</v>
       </c>
       <c r="M35" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N35" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O35" t="n">
-        <v>1713.627961551485</v>
+        <v>1713.627961551483</v>
       </c>
       <c r="P35" t="n">
         <v>1971.538286708528</v>
@@ -6970,19 +6970,19 @@
         <v>1861.21369066644</v>
       </c>
       <c r="U35" t="n">
-        <v>1605.691816726079</v>
+        <v>1673.706527963635</v>
       </c>
       <c r="V35" t="n">
-        <v>1263.585007429597</v>
+        <v>1673.706527963635</v>
       </c>
       <c r="W35" t="n">
-        <v>892.5859723978842</v>
+        <v>1673.706527963635</v>
       </c>
       <c r="X35" t="n">
-        <v>503.133367330941</v>
+        <v>1673.706527963635</v>
       </c>
       <c r="Y35" t="n">
-        <v>106.6426582515422</v>
+        <v>1673.706527963635</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>776.9798783881661</v>
+        <v>712.7891486073001</v>
       </c>
       <c r="C36" t="n">
-        <v>626.3256479482583</v>
+        <v>562.1349181673924</v>
       </c>
       <c r="D36" t="n">
-        <v>496.2366805697386</v>
+        <v>432.0459507888727</v>
       </c>
       <c r="E36" t="n">
-        <v>359.7901896806263</v>
+        <v>295.5994598997604</v>
       </c>
       <c r="F36" t="n">
-        <v>235.3583835637581</v>
+        <v>171.1676537828922</v>
       </c>
       <c r="G36" t="n">
-        <v>116.8425487457821</v>
+        <v>52.65181896491615</v>
       </c>
       <c r="H36" t="n">
         <v>43.45675869976549</v>
@@ -7016,25 +7016,25 @@
         <v>47.1535132291912</v>
       </c>
       <c r="J36" t="n">
-        <v>108.5031814623681</v>
+        <v>277.9784358170097</v>
       </c>
       <c r="K36" t="n">
-        <v>646.2805703719661</v>
+        <v>433.635426530097</v>
       </c>
       <c r="L36" t="n">
-        <v>885.6902554023175</v>
+        <v>673.0451115604484</v>
       </c>
       <c r="M36" t="n">
-        <v>1177.652029919389</v>
+        <v>965.0068860775202</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.70678304379</v>
+        <v>1274.061639201921</v>
       </c>
       <c r="O36" t="n">
-        <v>1866.7868558639</v>
+        <v>1542.343492684655</v>
       </c>
       <c r="P36" t="n">
-        <v>2069.540202371667</v>
+        <v>1745.096839192422</v>
       </c>
       <c r="Q36" t="n">
         <v>2172.627967404172</v>
@@ -7055,13 +7055,13 @@
         <v>1463.324023489456</v>
       </c>
       <c r="W36" t="n">
-        <v>1297.397507403608</v>
+        <v>1233.206777622742</v>
       </c>
       <c r="X36" t="n">
-        <v>1108.09042975362</v>
+        <v>1043.899699972754</v>
       </c>
       <c r="Y36" t="n">
-        <v>928.7762128291274</v>
+        <v>864.5854830482615</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.276893957065</v>
+        <v>524.5914556792162</v>
       </c>
       <c r="C37" t="n">
-        <v>917.0717760230543</v>
+        <v>354.3863377452054</v>
       </c>
       <c r="D37" t="n">
-        <v>761.4386629255691</v>
+        <v>354.3863377452054</v>
       </c>
       <c r="E37" t="n">
-        <v>605.8798507847716</v>
+        <v>354.3863377452054</v>
       </c>
       <c r="F37" t="n">
-        <v>448.5539159977446</v>
+        <v>354.3863377452054</v>
       </c>
       <c r="G37" t="n">
-        <v>281.5942856709937</v>
+        <v>187.4267074184545</v>
       </c>
       <c r="H37" t="n">
-        <v>137.6243369523046</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I37" t="n">
         <v>43.45675869976549</v>
@@ -7119,28 +7119,28 @@
         <v>2172.837934988274</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.837934988274</v>
+        <v>2126.747749116569</v>
       </c>
       <c r="S37" t="n">
-        <v>2172.837934988274</v>
+        <v>1946.489937944404</v>
       </c>
       <c r="T37" t="n">
-        <v>1942.64960206276</v>
+        <v>1716.301605018889</v>
       </c>
       <c r="U37" t="n">
-        <v>1942.64960206276</v>
+        <v>1716.301605018889</v>
       </c>
       <c r="V37" t="n">
-        <v>1676.670256883584</v>
+        <v>1450.322259839714</v>
       </c>
       <c r="W37" t="n">
-        <v>1393.339854814762</v>
+        <v>1166.991857770891</v>
       </c>
       <c r="X37" t="n">
-        <v>1159.259532597745</v>
+        <v>932.9115355538742</v>
       </c>
       <c r="Y37" t="n">
-        <v>1159.259532597745</v>
+        <v>709.7994743705175</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>862.9347220532431</v>
+        <v>814.7576116527758</v>
       </c>
       <c r="C38" t="n">
-        <v>862.9347220532431</v>
+        <v>814.7576116527758</v>
       </c>
       <c r="D38" t="n">
-        <v>862.9347220532431</v>
+        <v>429.3164828694436</v>
       </c>
       <c r="E38" t="n">
-        <v>460.3511971697877</v>
+        <v>429.3164828694436</v>
       </c>
       <c r="F38" t="n">
-        <v>43.45675869976548</v>
+        <v>70.54310705279244</v>
       </c>
       <c r="G38" t="n">
-        <v>43.45675869976548</v>
+        <v>70.54310705279244</v>
       </c>
       <c r="H38" t="n">
-        <v>43.45675869976548</v>
+        <v>70.54310705279244</v>
       </c>
       <c r="I38" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J38" t="n">
         <v>166.9995980355625</v>
@@ -7207,19 +7207,19 @@
         <v>2172.837934988274</v>
       </c>
       <c r="U38" t="n">
-        <v>1972.531275460836</v>
+        <v>1917.316061047913</v>
       </c>
       <c r="V38" t="n">
-        <v>1630.424466164354</v>
+        <v>1575.209251751432</v>
       </c>
       <c r="W38" t="n">
-        <v>1259.425431132642</v>
+        <v>1204.210216719719</v>
       </c>
       <c r="X38" t="n">
-        <v>1259.425431132642</v>
+        <v>814.7576116527758</v>
       </c>
       <c r="Y38" t="n">
-        <v>862.9347220532431</v>
+        <v>814.7576116527758</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>712.7891486072997</v>
+        <v>776.9798783881661</v>
       </c>
       <c r="C39" t="n">
-        <v>562.1349181673919</v>
+        <v>626.3256479482583</v>
       </c>
       <c r="D39" t="n">
-        <v>432.0459507888722</v>
+        <v>496.2366805697386</v>
       </c>
       <c r="E39" t="n">
-        <v>295.5994598997599</v>
+        <v>359.7901896806263</v>
       </c>
       <c r="F39" t="n">
-        <v>171.1676537828918</v>
+        <v>235.3583835637581</v>
       </c>
       <c r="G39" t="n">
-        <v>52.65181896491569</v>
+        <v>116.8425487457821</v>
       </c>
       <c r="H39" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I39" t="n">
-        <v>43.45675869976548</v>
+        <v>47.1535132291912</v>
       </c>
       <c r="J39" t="n">
-        <v>104.8064269329424</v>
+        <v>303.2381764420956</v>
       </c>
       <c r="K39" t="n">
-        <v>363.3317596734929</v>
+        <v>458.8951671551829</v>
       </c>
       <c r="L39" t="n">
-        <v>602.7414447038442</v>
+        <v>698.3048521855342</v>
       </c>
       <c r="M39" t="n">
-        <v>894.703219220916</v>
+        <v>990.266626702606</v>
       </c>
       <c r="N39" t="n">
-        <v>1203.757972345317</v>
+        <v>1299.321379827006</v>
       </c>
       <c r="O39" t="n">
-        <v>1472.03982582805</v>
+        <v>1567.60323330974</v>
       </c>
       <c r="P39" t="n">
-        <v>1674.793172335817</v>
+        <v>1770.356579817507</v>
       </c>
       <c r="Q39" t="n">
-        <v>2102.324300547568</v>
+        <v>2172.627967404172</v>
       </c>
       <c r="R39" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="S39" t="n">
-        <v>2066.586066973781</v>
+        <v>2130.776796754647</v>
       </c>
       <c r="T39" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U39" t="n">
-        <v>1685.864025118388</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V39" t="n">
-        <v>1463.324023489455</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W39" t="n">
-        <v>1233.206777622742</v>
+        <v>1297.397507403608</v>
       </c>
       <c r="X39" t="n">
-        <v>1043.899699972754</v>
+        <v>1108.09042975362</v>
       </c>
       <c r="Y39" t="n">
-        <v>864.585483048261</v>
+        <v>928.7762128291274</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.276893957065</v>
+        <v>449.8027891461426</v>
       </c>
       <c r="C40" t="n">
-        <v>917.0717760230543</v>
+        <v>279.5976712121318</v>
       </c>
       <c r="D40" t="n">
-        <v>761.4386629255691</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="E40" t="n">
-        <v>605.8798507847716</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="F40" t="n">
-        <v>448.5539159977446</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="G40" t="n">
-        <v>281.5942856709937</v>
+        <v>137.6243369523046</v>
       </c>
       <c r="H40" t="n">
         <v>137.6243369523046</v>
       </c>
       <c r="I40" t="n">
-        <v>43.45675869976548</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="J40" t="n">
         <v>103.3775994115472</v>
@@ -7341,43 +7341,43 @@
         <v>685.3518517120938</v>
       </c>
       <c r="M40" t="n">
-        <v>1070.51236408673</v>
+        <v>1070.512364086729</v>
       </c>
       <c r="N40" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O40" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P40" t="n">
-        <v>2063.18238297193</v>
+        <v>2063.182382971931</v>
       </c>
       <c r="Q40" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.837934988274</v>
+        <v>2107.138936493872</v>
       </c>
       <c r="S40" t="n">
-        <v>2172.837934988274</v>
+        <v>1926.881125321707</v>
       </c>
       <c r="T40" t="n">
-        <v>2172.837934988274</v>
+        <v>1926.881125321707</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.837934988274</v>
+        <v>1641.512938485816</v>
       </c>
       <c r="V40" t="n">
-        <v>2013.007698117562</v>
+        <v>1375.53359330664</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.67729604874</v>
+        <v>1092.203191237817</v>
       </c>
       <c r="X40" t="n">
-        <v>1495.596973831723</v>
+        <v>858.1228690208005</v>
       </c>
       <c r="Y40" t="n">
-        <v>1272.484912648366</v>
+        <v>635.0108078374438</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1283.155734505142</v>
+        <v>1059.237344948683</v>
       </c>
       <c r="C41" t="n">
-        <v>1283.155734505142</v>
+        <v>862.9347220532431</v>
       </c>
       <c r="D41" t="n">
-        <v>897.7146057218096</v>
+        <v>862.9347220532431</v>
       </c>
       <c r="E41" t="n">
-        <v>897.7146057218096</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="F41" t="n">
-        <v>480.8201672517873</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="G41" t="n">
-        <v>70.54310705279244</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="H41" t="n">
-        <v>70.54310705279244</v>
+        <v>43.45675869976549</v>
       </c>
       <c r="I41" t="n">
         <v>43.45675869976549</v>
       </c>
       <c r="J41" t="n">
-        <v>166.9995980355623</v>
+        <v>166.999598035562</v>
       </c>
       <c r="K41" t="n">
-        <v>385.1383258824831</v>
+        <v>385.1383258824819</v>
       </c>
       <c r="L41" t="n">
-        <v>679.7448521300332</v>
+        <v>679.7448521300319</v>
       </c>
       <c r="M41" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N41" t="n">
-        <v>1385.164487636535</v>
+        <v>1385.164487636534</v>
       </c>
       <c r="O41" t="n">
-        <v>1713.627961551485</v>
+        <v>1713.627961551483</v>
       </c>
       <c r="P41" t="n">
-        <v>1971.538286708529</v>
+        <v>1971.538286708528</v>
       </c>
       <c r="Q41" t="n">
-        <v>2133.905914674596</v>
+        <v>2133.905914674595</v>
       </c>
       <c r="R41" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="S41" t="n">
-        <v>2072.082161874357</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="T41" t="n">
-        <v>1861.21369066644</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="U41" t="n">
-        <v>1605.691816726079</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="V41" t="n">
-        <v>1283.155734505142</v>
+        <v>1830.731125691793</v>
       </c>
       <c r="W41" t="n">
-        <v>1283.155734505142</v>
+        <v>1459.73209066008</v>
       </c>
       <c r="X41" t="n">
-        <v>1283.155734505142</v>
+        <v>1459.73209066008</v>
       </c>
       <c r="Y41" t="n">
-        <v>1283.155734505142</v>
+        <v>1459.73209066008</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>303.2381764420956</v>
       </c>
       <c r="K42" t="n">
-        <v>529.356153924145</v>
+        <v>458.8951671551829</v>
       </c>
       <c r="L42" t="n">
-        <v>768.7658389544964</v>
+        <v>698.3048521855342</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.727613471568</v>
+        <v>990.266626702606</v>
       </c>
       <c r="N42" t="n">
-        <v>1598.505002381166</v>
+        <v>1299.321379827006</v>
       </c>
       <c r="O42" t="n">
-        <v>1866.7868558639</v>
+        <v>1567.60323330974</v>
       </c>
       <c r="P42" t="n">
-        <v>2069.540202371667</v>
+        <v>1770.356579817507</v>
       </c>
       <c r="Q42" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R42" t="n">
         <v>2172.837934988274</v>
@@ -7520,22 +7520,22 @@
         <v>2066.586066973781</v>
       </c>
       <c r="T42" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U42" t="n">
-        <v>1685.864025118389</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V42" t="n">
-        <v>1463.324023489456</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W42" t="n">
-        <v>1233.206777622742</v>
+        <v>1297.397507403608</v>
       </c>
       <c r="X42" t="n">
-        <v>1043.899699972754</v>
+        <v>1108.09042975362</v>
       </c>
       <c r="Y42" t="n">
-        <v>864.5854830482615</v>
+        <v>928.7762128291274</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>524.853801872059</v>
+        <v>470.5214734063312</v>
       </c>
       <c r="C43" t="n">
-        <v>354.6486839380482</v>
+        <v>470.5214734063312</v>
       </c>
       <c r="D43" t="n">
-        <v>199.015570840563</v>
+        <v>470.5214734063312</v>
       </c>
       <c r="E43" t="n">
-        <v>43.45675869976549</v>
+        <v>367.7423238135435</v>
       </c>
       <c r="F43" t="n">
-        <v>43.45675869976549</v>
+        <v>210.4163890265164</v>
       </c>
       <c r="G43" t="n">
         <v>43.45675869976549</v>
@@ -7572,49 +7572,49 @@
         <v>103.3775994115472</v>
       </c>
       <c r="K43" t="n">
-        <v>332.6083939857839</v>
+        <v>332.6083939857833</v>
       </c>
       <c r="L43" t="n">
-        <v>685.3518517120938</v>
+        <v>685.3518517120932</v>
       </c>
       <c r="M43" t="n">
-        <v>1070.51236408673</v>
+        <v>1070.512364086729</v>
       </c>
       <c r="N43" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O43" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P43" t="n">
         <v>2063.182382971931</v>
       </c>
       <c r="Q43" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S43" t="n">
-        <v>2172.837934988275</v>
+        <v>1992.580123816109</v>
       </c>
       <c r="T43" t="n">
-        <v>1942.649602062761</v>
+        <v>1762.391790890595</v>
       </c>
       <c r="U43" t="n">
-        <v>1657.281415226869</v>
+        <v>1477.023604054703</v>
       </c>
       <c r="V43" t="n">
-        <v>1391.302070047693</v>
+        <v>1211.044258875527</v>
       </c>
       <c r="W43" t="n">
-        <v>1167.254203963734</v>
+        <v>927.7138568067048</v>
       </c>
       <c r="X43" t="n">
-        <v>933.1738817467169</v>
+        <v>693.6335345896879</v>
       </c>
       <c r="Y43" t="n">
-        <v>710.0618205633602</v>
+        <v>470.5214734063312</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1224.656913863623</v>
+        <v>845.2401766274223</v>
       </c>
       <c r="C44" t="n">
-        <v>831.4814123665533</v>
+        <v>845.2401766274223</v>
       </c>
       <c r="D44" t="n">
-        <v>446.040283583221</v>
+        <v>845.2401766274223</v>
       </c>
       <c r="E44" t="n">
-        <v>43.45675869976548</v>
+        <v>460.3511971697877</v>
       </c>
       <c r="F44" t="n">
         <v>43.45675869976548</v>
@@ -7651,13 +7651,13 @@
         <v>166.9995980355625</v>
       </c>
       <c r="K44" t="n">
-        <v>385.1383258824827</v>
+        <v>385.1383258824826</v>
       </c>
       <c r="L44" t="n">
         <v>679.7448521300325</v>
       </c>
       <c r="M44" t="n">
-        <v>1028.136511519569</v>
+        <v>1028.136511519568</v>
       </c>
       <c r="N44" t="n">
         <v>1385.164487636534</v>
@@ -7675,25 +7675,25 @@
         <v>2172.837934988274</v>
       </c>
       <c r="S44" t="n">
-        <v>2172.837934988274</v>
+        <v>2072.082161874357</v>
       </c>
       <c r="T44" t="n">
-        <v>2172.837934988274</v>
+        <v>1861.213690666439</v>
       </c>
       <c r="U44" t="n">
-        <v>2172.837934988274</v>
+        <v>1605.691816726078</v>
       </c>
       <c r="V44" t="n">
-        <v>2172.837934988274</v>
+        <v>1605.691816726078</v>
       </c>
       <c r="W44" t="n">
-        <v>2172.837934988274</v>
+        <v>1234.692781694366</v>
       </c>
       <c r="X44" t="n">
-        <v>2021.642368654419</v>
+        <v>845.2401766274223</v>
       </c>
       <c r="Y44" t="n">
-        <v>1625.15165957502</v>
+        <v>845.2401766274223</v>
       </c>
     </row>
     <row r="45">
@@ -7724,46 +7724,46 @@
         <v>43.45675869976548</v>
       </c>
       <c r="I45" t="n">
-        <v>47.15351322919119</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="J45" t="n">
-        <v>108.5031814623681</v>
+        <v>207.6747689604057</v>
       </c>
       <c r="K45" t="n">
-        <v>264.1601721754555</v>
+        <v>363.331759673493</v>
       </c>
       <c r="L45" t="n">
-        <v>503.5698572058068</v>
+        <v>602.7414447038443</v>
       </c>
       <c r="M45" t="n">
-        <v>795.5316317228787</v>
+        <v>894.703219220916</v>
       </c>
       <c r="N45" t="n">
-        <v>1104.586384847279</v>
+        <v>1203.757972345317</v>
       </c>
       <c r="O45" t="n">
-        <v>1531.762813462069</v>
+        <v>1472.03982582805</v>
       </c>
       <c r="P45" t="n">
-        <v>2069.540202371667</v>
+        <v>1674.793172335817</v>
       </c>
       <c r="Q45" t="n">
-        <v>2172.627967404172</v>
+        <v>2102.324300547568</v>
       </c>
       <c r="R45" t="n">
         <v>2172.837934988274</v>
       </c>
       <c r="S45" t="n">
-        <v>2066.586066973781</v>
+        <v>2130.776796754647</v>
       </c>
       <c r="T45" t="n">
-        <v>1895.825590603552</v>
+        <v>1960.016320384418</v>
       </c>
       <c r="U45" t="n">
-        <v>1685.864025118388</v>
+        <v>1750.054754899254</v>
       </c>
       <c r="V45" t="n">
-        <v>1463.324023489455</v>
+        <v>1527.514753270322</v>
       </c>
       <c r="W45" t="n">
         <v>1297.397507403608</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>688.6833270705525</v>
+        <v>285.3134547150295</v>
       </c>
       <c r="C46" t="n">
-        <v>518.4782091365418</v>
+        <v>115.1083367810187</v>
       </c>
       <c r="D46" t="n">
-        <v>362.8450960390565</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="E46" t="n">
-        <v>207.286283898259</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="F46" t="n">
-        <v>207.286283898259</v>
+        <v>43.45675869976548</v>
       </c>
       <c r="G46" t="n">
         <v>43.45675869976548</v>
@@ -7806,52 +7806,52 @@
         <v>43.45675869976548</v>
       </c>
       <c r="J46" t="n">
-        <v>103.3775994115472</v>
+        <v>103.3775994115463</v>
       </c>
       <c r="K46" t="n">
-        <v>332.6083939857839</v>
+        <v>332.6083939857829</v>
       </c>
       <c r="L46" t="n">
-        <v>685.3518517120938</v>
+        <v>685.3518517120928</v>
       </c>
       <c r="M46" t="n">
-        <v>1070.51236408673</v>
+        <v>1070.512364086729</v>
       </c>
       <c r="N46" t="n">
-        <v>1447.84227339685</v>
+        <v>1447.842273396849</v>
       </c>
       <c r="O46" t="n">
-        <v>1789.867007172741</v>
+        <v>1789.86700717274</v>
       </c>
       <c r="P46" t="n">
-        <v>2063.182382971931</v>
+        <v>2063.18238297193</v>
       </c>
       <c r="Q46" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.837934988275</v>
+        <v>2172.837934988274</v>
       </c>
       <c r="S46" t="n">
-        <v>2172.837934988275</v>
+        <v>1992.580123816109</v>
       </c>
       <c r="T46" t="n">
-        <v>1942.649602062761</v>
+        <v>1762.391790890594</v>
       </c>
       <c r="U46" t="n">
-        <v>1657.281415226869</v>
+        <v>1477.023604054702</v>
       </c>
       <c r="V46" t="n">
-        <v>1391.302070047693</v>
+        <v>1211.044258875527</v>
       </c>
       <c r="W46" t="n">
-        <v>1107.971667978871</v>
+        <v>927.7138568067044</v>
       </c>
       <c r="X46" t="n">
-        <v>873.8913457618538</v>
+        <v>693.6335345896874</v>
       </c>
       <c r="Y46" t="n">
-        <v>873.8913457618538</v>
+        <v>470.5214734063308</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>8.891639634083504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>8.891639634082857</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61628214948776</v>
+        <v>51.61628214948765</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>11.21418525742004</v>
+        <v>11.21418525741996</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.88160694352199</v>
+        <v>47.88160694352193</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>37.85944032719011</v>
+        <v>37.85944032719005</v>
       </c>
       <c r="K13" t="n">
-        <v>127.5995924824082</v>
+        <v>127.5995924824084</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>108.397795875106</v>
       </c>
       <c r="N13" t="n">
-        <v>27.25323388616464</v>
+        <v>92.41612527612074</v>
       </c>
       <c r="O13" t="n">
-        <v>117.8324615267599</v>
+        <v>0.6560595033192129</v>
       </c>
       <c r="P13" t="n">
-        <v>130.2532098596575</v>
+        <v>130.2532098596578</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>45.55072982767098</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.1031173608315</v>
+        <v>50.10311736083156</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>9.996493671227981</v>
+        <v>9.996493671228023</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.08138215850111</v>
+        <v>47.08138215850114</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>131.0594330892264</v>
+        <v>131.0594330892263</v>
       </c>
       <c r="L16" t="n">
-        <v>113.9881414229084</v>
+        <v>113.9881414229083</v>
       </c>
       <c r="M16" t="n">
-        <v>111.4192326297104</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>28.04698914014644</v>
+        <v>18.44582236155921</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>121.0203994082974</v>
       </c>
       <c r="P16" t="n">
-        <v>11.76994589361102</v>
+        <v>11.76994589361108</v>
       </c>
       <c r="Q16" t="n">
         <v>101.9350150692923</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.10311736083153</v>
+        <v>50.10311736083155</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>9.996493671227995</v>
+        <v>9.996493671228009</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.08138215850112</v>
+        <v>47.08138215850113</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.09549975836524</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>9.167801431118576</v>
+        <v>131.0594330892263</v>
       </c>
       <c r="L19" t="n">
-        <v>51.77413830172571</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>111.4192326297103</v>
+        <v>67.83142083711375</v>
       </c>
       <c r="N19" t="n">
-        <v>106.5092612162225</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>121.0203994082975</v>
+        <v>121.0203994082974</v>
       </c>
       <c r="P19" t="n">
-        <v>11.76994589361105</v>
+        <v>133.6615775517187</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>50.10311736083152</v>
+        <v>50.10311736083153</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.08138215850111</v>
+        <v>47.08138215850112</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,13 +9561,13 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>109.8862497239043</v>
+        <v>131.0594330892262</v>
       </c>
       <c r="L22" t="n">
-        <v>113.9881414229083</v>
+        <v>92.81495805758617</v>
       </c>
       <c r="M22" t="n">
-        <v>111.4192326297103</v>
+        <v>111.4192326297102</v>
       </c>
       <c r="N22" t="n">
         <v>106.5092612162224</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>11.76994589361104</v>
+        <v>11.76994589361105</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.64592635853824</v>
+        <v>44.64592635853825</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>12.06207006752409</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>103.9074161893571</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>234.9259699262439</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9274942801781</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>385.9802001984955</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>231.1918744419756</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N28" t="n">
-        <v>268.0356382773604</v>
+        <v>268.0356382773597</v>
       </c>
       <c r="O28" t="n">
         <v>254.3449995307766</v>
@@ -10190,7 +10190,7 @@
         <v>12.06207006752409</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>174.9212210950174</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>234.9259699262439</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.47253646344786</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K31" t="n">
         <v>166.520275497658</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.06207006752409</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>174.9212210950174</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>171.187125610749</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>171.187125610749</v>
       </c>
       <c r="K36" t="n">
-        <v>385.9802001984955</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>112.927494280178</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>52.47253646344785</v>
+        <v>52.47253646344786</v>
       </c>
       <c r="K37" t="n">
         <v>166.520275497658</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>12.06207006752409</v>
+        <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>103.9074161893566</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>302.205679347636</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>278.4750710187352</v>
+        <v>278.4750710187346</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
@@ -10998,7 +10998,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699031</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11141,7 +11141,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>71.17271390804251</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>231.0329654395933</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>231.1918744419756</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>166.5202754976574</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.79616555179249</v>
+        <v>12.0620700675241</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>103.9074161893569</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>160.4995708404601</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>338.4081236382129</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>52.4725364634484</v>
+        <v>52.4725364634475</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
@@ -23260,25 +23260,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>272.0673444586581</v>
+        <v>272.0673444586578</v>
       </c>
       <c r="D11" t="n">
-        <v>278.3777425932525</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>295.5490920618814</v>
+        <v>295.5490920618811</v>
       </c>
       <c r="G11" t="n">
         <v>407.6220289191327</v>
       </c>
       <c r="H11" t="n">
-        <v>189.234882385436</v>
+        <v>306.4112844088766</v>
       </c>
       <c r="I11" t="n">
-        <v>82.62945508582715</v>
+        <v>82.62945508582706</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>215.0972653784523</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0824743467278</v>
+        <v>149.8734994444811</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>221.5093391800759</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23342,22 +23342,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6116756812939</v>
+        <v>11.61167568129353</v>
       </c>
       <c r="E12" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
-        <v>6.011086032258959</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.1052852967253</v>
+        <v>14.89631039447853</v>
       </c>
       <c r="H12" t="n">
-        <v>80.13302265826562</v>
+        <v>80.1330226582656</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93555053061226</v>
+        <v>22.93555053061223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>2.400966530400641</v>
+        <v>119.5773685538412</v>
       </c>
       <c r="T12" t="n">
-        <v>172.1750887641927</v>
+        <v>54.99868674075178</v>
       </c>
       <c r="U12" t="n">
         <v>207.9129109373467</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>103.1381995892027</v>
       </c>
       <c r="W12" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>84.20503197124206</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -23418,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>159.5357564840447</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23436,7 +23436,7 @@
         <v>148.304059115747</v>
       </c>
       <c r="I13" t="n">
-        <v>112.7553125897295</v>
+        <v>112.7553125897294</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>94.24166463162041</v>
       </c>
       <c r="S13" t="n">
-        <v>72.5962068530535</v>
+        <v>189.772608876494</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4847823842656</v>
+        <v>230.6611844077061</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5499271140618</v>
+        <v>179.340952211815</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>146.1431497039431</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>163.3206960246932</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>114.5631169714058</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.7045385480825</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>289.1276490898215</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>267.352114823991</v>
       </c>
       <c r="D14" t="n">
-        <v>259.695085837391</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>290.8338624272141</v>
+        <v>305.3633449208608</v>
       </c>
       <c r="G14" t="n">
         <v>407.5979401715768</v>
       </c>
       <c r="H14" t="n">
-        <v>184.2729538648622</v>
+        <v>306.1645855229701</v>
       </c>
       <c r="I14" t="n">
-        <v>81.70077364567956</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>245.3974130232878</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>263.6664473581661</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.38673943844385</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>27.25605647740083</v>
+        <v>27.25605647740103</v>
       </c>
       <c r="D15" t="n">
-        <v>21.42592854027305</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -23594,7 +23594,7 @@
         <v>80.00854575966319</v>
       </c>
       <c r="I15" t="n">
-        <v>22.491797735867</v>
+        <v>22.49179773586702</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T15" t="n">
-        <v>172.1231385962474</v>
+        <v>64.76098943178619</v>
       </c>
       <c r="U15" t="n">
         <v>207.9120630020701</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>98.42296995453596</v>
       </c>
       <c r="W15" t="n">
-        <v>105.9244417499381</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>55.62944309714017</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>154.8967329157467</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23673,7 +23673,7 @@
         <v>148.207989438968</v>
       </c>
       <c r="I16" t="n">
-        <v>112.4303652576383</v>
+        <v>112.4303652576384</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.75581532553741</v>
       </c>
       <c r="S16" t="n">
         <v>189.5843005223167</v>
       </c>
       <c r="T16" t="n">
-        <v>108.7233842955224</v>
+        <v>108.7233842955226</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5493377295417</v>
+        <v>175.1871885650805</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>158.6054663900263</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>109.847887336739</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.9893089134152</v>
+        <v>98.9893089134154</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>274.2245683310377</v>
       </c>
       <c r="E17" t="n">
-        <v>276.6660579765131</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>290.8338624272142</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>285.706308513469</v>
+        <v>407.5979401715768</v>
       </c>
       <c r="H17" t="n">
-        <v>198.8024363585088</v>
+        <v>184.2729538648624</v>
       </c>
       <c r="I17" t="n">
         <v>81.70077364567959</v>
@@ -23785,13 +23785,13 @@
         <v>132.189652850835</v>
       </c>
       <c r="T17" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791886</v>
       </c>
       <c r="U17" t="n">
         <v>253.0805472469234</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>216.7941095454091</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>28.38673943844405</v>
       </c>
       <c r="C18" t="n">
         <v>149.1476881355087</v>
@@ -23819,13 +23819,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>13.19039432211339</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>1.295856397591848</v>
       </c>
       <c r="G18" t="n">
-        <v>118.0923966805212</v>
+        <v>10.73024751606007</v>
       </c>
       <c r="H18" t="n">
         <v>80.00854575966319</v>
@@ -23867,16 +23867,16 @@
         <v>172.1231385962474</v>
       </c>
       <c r="U18" t="n">
-        <v>86.0204313439623</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V18" t="n">
-        <v>98.42296995453587</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W18" t="n">
-        <v>120.4539242435847</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538079</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23943,19 +23943,19 @@
         <v>189.5843005223167</v>
       </c>
       <c r="T19" t="n">
-        <v>108.7233842955225</v>
+        <v>230.6150159536303</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6577060714339</v>
+        <v>175.1871885650805</v>
       </c>
       <c r="V19" t="n">
-        <v>141.4279200692762</v>
+        <v>141.4279200692764</v>
       </c>
       <c r="W19" t="n">
-        <v>173.1349488836728</v>
+        <v>158.6054663900265</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>109.847887336739</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23971,16 +23971,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>267.3521148239909</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>274.2245683310376</v>
+        <v>274.2245683310377</v>
       </c>
       <c r="E20" t="n">
-        <v>276.6660579765131</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>290.8338624272142</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>407.5979401715768</v>
@@ -23989,7 +23989,7 @@
         <v>306.1645855229701</v>
       </c>
       <c r="I20" t="n">
-        <v>81.70077364567956</v>
+        <v>81.70077364567959</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.189652850835</v>
+        <v>10.29802119272735</v>
       </c>
       <c r="T20" t="n">
-        <v>214.9918168860265</v>
+        <v>93.10018522791886</v>
       </c>
       <c r="U20" t="n">
         <v>253.0805472469234</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>270.6341703304972</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
-        <v>128.7880777047345</v>
+        <v>101.4344742999365</v>
       </c>
       <c r="E21" t="n">
         <v>135.0820259802211</v>
@@ -24065,7 +24065,7 @@
         <v>118.0923966805212</v>
       </c>
       <c r="H21" t="n">
-        <v>80.00854575966319</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>22.49179773586701</v>
@@ -24101,19 +24101,19 @@
         <v>119.3379681607525</v>
       </c>
       <c r="T21" t="n">
-        <v>50.23150693813962</v>
+        <v>172.1231385962474</v>
       </c>
       <c r="U21" t="n">
-        <v>100.5499138376088</v>
+        <v>207.9120630020701</v>
       </c>
       <c r="V21" t="n">
-        <v>98.42296995453587</v>
+        <v>98.42296995453596</v>
       </c>
       <c r="W21" t="n">
         <v>105.9244417499383</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>65.52237521538079</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>93.7558153255374</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.5843005223167</v>
@@ -24183,19 +24183,19 @@
         <v>230.6150159536303</v>
       </c>
       <c r="U22" t="n">
-        <v>160.6577060714339</v>
+        <v>160.657706071434</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>141.4279200692764</v>
       </c>
       <c r="W22" t="n">
-        <v>158.6054663900264</v>
+        <v>266.8907642092104</v>
       </c>
       <c r="X22" t="n">
         <v>109.847887336739</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5187914070618</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>77.69421230298576</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24217,7 +24217,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>244.236128795385</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T23" t="n">
         <v>208.7597864958381</v>
@@ -24265,7 +24265,7 @@
         <v>252.9666552009576</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>63.54882248305726</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.5488224830576</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>124.3123500297972</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>65.04200850945783</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>178.4552330604436</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>96.05037310758635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,10 +24448,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>169.8258277233796</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
@@ -24460,7 +24460,7 @@
         <v>406.1742895970049</v>
       </c>
       <c r="H26" t="n">
-        <v>291.5846240761357</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>26.81548486949667</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>208.7597864958381</v>
@@ -24502,16 +24502,16 @@
         <v>252.9666552009576</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>213.9197665450532</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>63.54882248305725</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.54882248305759</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>82.80740878974783</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>54.50634853364413</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.04200850945783</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>234.1875423152459</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -24688,19 +24688,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>291.5846240761357</v>
       </c>
       <c r="I29" t="n">
-        <v>26.81548486949667</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>99.748215382778</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>310.7592729199825</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>63.54882248305726</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>63.54882248305759</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.33284867903069</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.2900340234834</v>
       </c>
       <c r="H31" t="n">
-        <v>142.5302492315022</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.04200850945783</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.8074087897478</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>406.1742895970049</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.7597864958381</v>
       </c>
       <c r="U32" t="n">
-        <v>22.14570031290138</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>130.4725825401188</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>63.54882248305759</v>
+        <v>63.5488224830576</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.65850963745679</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H34" t="n">
-        <v>11.86171475536525</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>93.22590247001375</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>65.04200850945783</v>
       </c>
       <c r="S34" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.8864495962592</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.935757698024</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25162,13 +25162,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>406.1742895970049</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>291.5846240761357</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>67.33456412518103</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>63.54882248305726</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>63.54882248305731</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>112.093126250115</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>93.22590247001375</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.04200850945783</v>
+        <v>19.41272449646922</v>
       </c>
       <c r="S37" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>57.53985202683737</v>
       </c>
       <c r="G38" t="n">
         <v>406.1742895970049</v>
@@ -25411,7 +25411,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I38" t="n">
-        <v>26.81548486949667</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>208.7597864958381</v>
       </c>
       <c r="U38" t="n">
-        <v>54.66306226879434</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25487,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>63.54882248305771</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>63.5488224830576</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>13.52318104928153</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.5302492315022</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.04200850945783</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>227.8864495962592</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5145049675327</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>105.0876172253795</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>194.9041498156129</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>406.1742895970049</v>
       </c>
       <c r="H41" t="n">
         <v>291.5846240761357</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>26.81548486949667</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>99.748215382778</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7597864958381</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.9666552009576</v>
       </c>
       <c r="V41" t="n">
-        <v>19.37501980478959</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63.54882248305726</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>63.54882248305731</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>52.25186592252965</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2900340234834</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.5302492315022</v>
@@ -25836,7 +25836,7 @@
         <v>65.04200850945783</v>
       </c>
       <c r="S43" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>58.68971062501433</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>17.51759997156267</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>406.1742895970049</v>
@@ -25885,7 +25885,7 @@
         <v>291.5846240761357</v>
       </c>
       <c r="I44" t="n">
-        <v>26.81548486949667</v>
+        <v>26.8154848694967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.748215382778</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>208.7597864958381</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.9666552009576</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>235.8744683457569</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>63.54882248305805</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>63.54882248305773</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.14171966606973</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>3.09880407697483</v>
+        <v>165.2900340234834</v>
       </c>
       <c r="H46" t="n">
         <v>142.5302492315022</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.04200850945783</v>
+        <v>65.04200850945784</v>
       </c>
       <c r="S46" t="n">
-        <v>178.4552330604436</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>314551.2605576823</v>
+        <v>314551.2605576827</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318209.997455447</v>
+        <v>318209.9974554467</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659841.9176749756</v>
+        <v>659841.9176749754</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659841.9176749754</v>
+        <v>659841.9176749752</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659841.9176749754</v>
+        <v>659841.9176749756</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659841.9176749754</v>
+        <v>659841.9176749752</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659841.9176749751</v>
+        <v>659841.9176749755</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>63873.80875407335</v>
       </c>
       <c r="E2" t="n">
-        <v>99376.9758439154</v>
+        <v>99376.97584391542</v>
       </c>
       <c r="F2" t="n">
-        <v>100602.6959963409</v>
+        <v>100602.6959963408</v>
       </c>
       <c r="G2" t="n">
-        <v>100602.6959963409</v>
+        <v>100602.6959963408</v>
       </c>
       <c r="H2" t="n">
-        <v>100602.6959963409</v>
+        <v>100602.6959963408</v>
       </c>
       <c r="I2" t="n">
         <v>207325.59439407</v>
@@ -26340,13 +26340,13 @@
         <v>207325.59439407</v>
       </c>
       <c r="K2" t="n">
-        <v>207325.5943940699</v>
+        <v>207325.59439407</v>
       </c>
       <c r="L2" t="n">
-        <v>207325.5943940701</v>
+        <v>207325.59439407</v>
       </c>
       <c r="M2" t="n">
-        <v>207325.5943940701</v>
+        <v>207325.59439407</v>
       </c>
       <c r="N2" t="n">
         <v>207325.59439407</v>
@@ -26355,7 +26355,7 @@
         <v>207325.59439407</v>
       </c>
       <c r="P2" t="n">
-        <v>207325.59439407</v>
+        <v>207325.5943940699</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316589.8013257766</v>
+        <v>316589.8013257771</v>
       </c>
       <c r="F3" t="n">
-        <v>6087.442364174845</v>
+        <v>6087.442364174139</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>378610.5867020049</v>
+        <v>378610.586702005</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29200.82808984948</v>
+        <v>29200.82808984958</v>
       </c>
       <c r="N3" t="n">
-        <v>1154.88704873015</v>
+        <v>1154.887048730017</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="C4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="D4" t="n">
-        <v>33815.54581098</v>
+        <v>33815.54581098001</v>
       </c>
       <c r="E4" t="n">
-        <v>4830.533797677431</v>
+        <v>4830.533797677419</v>
       </c>
       <c r="F4" t="n">
-        <v>4671.996685813881</v>
+        <v>4671.99668581388</v>
       </c>
       <c r="G4" t="n">
-        <v>4671.99668581388</v>
+        <v>4671.996685813879</v>
       </c>
       <c r="H4" t="n">
-        <v>4671.99668581388</v>
+        <v>4671.996685813878</v>
       </c>
       <c r="I4" t="n">
         <v>13944.93302033938</v>
@@ -26444,7 +26444,7 @@
         <v>13944.93302033939</v>
       </c>
       <c r="K4" t="n">
-        <v>13944.93302033938</v>
+        <v>13944.93302033939</v>
       </c>
       <c r="L4" t="n">
         <v>13944.93302033939</v>
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14765.51704995246</v>
+        <v>14765.51704995249</v>
       </c>
       <c r="F5" t="n">
-        <v>15182.83026754881</v>
+        <v>15182.8302675488</v>
       </c>
       <c r="G5" t="n">
         <v>15182.8302675488</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="E6" t="n">
-        <v>-236808.8763294911</v>
+        <v>-238027.6276642845</v>
       </c>
       <c r="F6" t="n">
-        <v>74660.42667880333</v>
+        <v>73448.88546255474</v>
       </c>
       <c r="G6" t="n">
-        <v>80747.86904297817</v>
+        <v>79536.32782672888</v>
       </c>
       <c r="H6" t="n">
-        <v>80747.86904297817</v>
+        <v>79536.32782672896</v>
       </c>
       <c r="I6" t="n">
-        <v>-233748.9821560916</v>
+        <v>-234332.7416170602</v>
       </c>
       <c r="J6" t="n">
-        <v>144861.6045459133</v>
+        <v>144277.8450849449</v>
       </c>
       <c r="K6" t="n">
-        <v>144861.6045459132</v>
+        <v>144277.8450849448</v>
       </c>
       <c r="L6" t="n">
-        <v>144861.6045459133</v>
+        <v>144277.8450849448</v>
       </c>
       <c r="M6" t="n">
-        <v>115660.7764560639</v>
+        <v>115077.0169950953</v>
       </c>
       <c r="N6" t="n">
-        <v>143706.7174971831</v>
+        <v>143122.9580362148</v>
       </c>
       <c r="O6" t="n">
-        <v>144861.6045459133</v>
+        <v>144277.8450849448</v>
       </c>
       <c r="P6" t="n">
-        <v>144861.6045459133</v>
+        <v>144277.8450849447</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>350.5133856388658</v>
+        <v>350.5133856388663</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5054615933878</v>
+        <v>356.5054615933876</v>
       </c>
       <c r="G3" t="n">
         <v>356.5054615933877</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5054615933878</v>
+        <v>356.5054615933877</v>
       </c>
       <c r="I3" t="n">
         <v>710.638542018146</v>
@@ -26779,7 +26779,7 @@
         <v>710.638542018146</v>
       </c>
       <c r="P3" t="n">
-        <v>710.638542018146</v>
+        <v>710.6385420181459</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="F4" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="G4" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="H4" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="I4" t="n">
         <v>543.2094837470686</v>
@@ -26825,7 +26825,7 @@
         <v>543.2094837470686</v>
       </c>
       <c r="N4" t="n">
-        <v>543.2094837470685</v>
+        <v>543.2094837470686</v>
       </c>
       <c r="O4" t="n">
         <v>543.2094837470686</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>350.5133856388658</v>
+        <v>350.5133856388663</v>
       </c>
       <c r="F3" t="n">
-        <v>5.992075954522022</v>
+        <v>5.99207595452134</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>354.1330804247582</v>
+        <v>354.1330804247583</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="F4" t="n">
-        <v>4.71522963466731</v>
+        <v>4.715229634666727</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>421.3178520889608</v>
+        <v>421.3178520889609</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="N4" t="n">
-        <v>4.715229634667267</v>
+        <v>4.715229634666727</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="N4" t="n">
-        <v>4.71522963466731</v>
+        <v>4.715229634666727</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.409099037744183</v>
+        <v>1.409099037744185</v>
       </c>
       <c r="H11" t="n">
-        <v>14.43093552029762</v>
+        <v>14.43093552029764</v>
       </c>
       <c r="I11" t="n">
-        <v>54.32429065263268</v>
+        <v>54.32429065263275</v>
       </c>
       <c r="J11" t="n">
-        <v>119.5955194547405</v>
+        <v>119.5955194547406</v>
       </c>
       <c r="K11" t="n">
-        <v>179.2426817224518</v>
+        <v>179.242681722452</v>
       </c>
       <c r="L11" t="n">
-        <v>222.3663963988154</v>
+        <v>222.3663963988157</v>
       </c>
       <c r="M11" t="n">
-        <v>247.4254614112985</v>
+        <v>247.4254614112988</v>
       </c>
       <c r="N11" t="n">
-        <v>251.4290640522892</v>
+        <v>251.4290640522895</v>
       </c>
       <c r="O11" t="n">
-        <v>237.4173354957204</v>
+        <v>237.4173354957207</v>
       </c>
       <c r="P11" t="n">
-        <v>202.6302030014109</v>
+        <v>202.6302030014111</v>
       </c>
       <c r="Q11" t="n">
-        <v>152.1668437121973</v>
+        <v>152.1668437121975</v>
       </c>
       <c r="R11" t="n">
-        <v>88.51431742969812</v>
+        <v>88.51431742969824</v>
       </c>
       <c r="S11" t="n">
-        <v>32.10984432259561</v>
+        <v>32.10984432259565</v>
       </c>
       <c r="T11" t="n">
-        <v>6.168331037725165</v>
+        <v>6.168331037725173</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1127279230195346</v>
+        <v>0.1127279230195348</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7539344521288812</v>
+        <v>0.7539344521288822</v>
       </c>
       <c r="H12" t="n">
-        <v>7.281419577139459</v>
+        <v>7.281419577139469</v>
       </c>
       <c r="I12" t="n">
-        <v>25.95783091759526</v>
+        <v>25.95783091759529</v>
       </c>
       <c r="J12" t="n">
-        <v>71.23027207591331</v>
+        <v>71.23027207591339</v>
       </c>
       <c r="K12" t="n">
-        <v>121.7438803685483</v>
+        <v>121.7438803685485</v>
       </c>
       <c r="L12" t="n">
-        <v>163.69967128351</v>
+        <v>163.6996712835102</v>
       </c>
       <c r="M12" t="n">
-        <v>191.0297951731818</v>
+        <v>191.0297951731821</v>
       </c>
       <c r="N12" t="n">
-        <v>196.0857854245199</v>
+        <v>196.0857854245201</v>
       </c>
       <c r="O12" t="n">
-        <v>179.3801851957694</v>
+        <v>179.3801851957696</v>
       </c>
       <c r="P12" t="n">
-        <v>143.9684130560844</v>
+        <v>143.9684130560846</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.23907146824106</v>
+        <v>96.23907146824118</v>
       </c>
       <c r="R12" t="n">
-        <v>46.81007063305459</v>
+        <v>46.81007063305465</v>
       </c>
       <c r="S12" t="n">
-        <v>14.00400177528864</v>
+        <v>14.00400177528866</v>
       </c>
       <c r="T12" t="n">
-        <v>3.038884918887902</v>
+        <v>3.038884918887906</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04960095079795273</v>
+        <v>0.0496009507979528</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6320733183651678</v>
+        <v>0.6320733183651687</v>
       </c>
       <c r="H13" t="n">
-        <v>5.619706412373951</v>
+        <v>5.619706412373958</v>
       </c>
       <c r="I13" t="n">
-        <v>19.00816851956342</v>
+        <v>19.00816851956344</v>
       </c>
       <c r="J13" t="n">
-        <v>44.68758360841736</v>
+        <v>44.68758360841742</v>
       </c>
       <c r="K13" t="n">
-        <v>73.43542735188039</v>
+        <v>73.43542735188049</v>
       </c>
       <c r="L13" t="n">
-        <v>93.97206407767233</v>
+        <v>93.97206407767246</v>
       </c>
       <c r="M13" t="n">
-        <v>99.08036571427806</v>
+        <v>99.0803657142782</v>
       </c>
       <c r="N13" t="n">
-        <v>96.72445607309888</v>
+        <v>96.72445607309901</v>
       </c>
       <c r="O13" t="n">
-        <v>89.34069049037848</v>
+        <v>89.34069049037859</v>
       </c>
       <c r="P13" t="n">
-        <v>76.44639479572899</v>
+        <v>76.44639479572909</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.92752123146874</v>
+        <v>52.92752123146881</v>
       </c>
       <c r="R13" t="n">
-        <v>28.42031484212836</v>
+        <v>28.42031484212839</v>
       </c>
       <c r="S13" t="n">
-        <v>11.01531410278206</v>
+        <v>11.01531410278207</v>
       </c>
       <c r="T13" t="n">
-        <v>2.70067690574208</v>
+        <v>2.700676905742084</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03447672645628192</v>
+        <v>0.03447672645628196</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.433187785300051</v>
+        <v>1.43318778530005</v>
       </c>
       <c r="H14" t="n">
-        <v>14.67763440620415</v>
+        <v>14.67763440620414</v>
       </c>
       <c r="I14" t="n">
-        <v>55.25297209278025</v>
+        <v>55.25297209278022</v>
       </c>
       <c r="J14" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926102</v>
       </c>
       <c r="K14" t="n">
-        <v>182.3068607443614</v>
+        <v>182.3068607443613</v>
       </c>
       <c r="L14" t="n">
-        <v>226.1677814287379</v>
+        <v>226.1677814287378</v>
       </c>
       <c r="M14" t="n">
-        <v>251.6552347055677</v>
+        <v>251.6552347055675</v>
       </c>
       <c r="N14" t="n">
-        <v>255.7272795005515</v>
+        <v>255.7272795005513</v>
       </c>
       <c r="O14" t="n">
-        <v>241.4760184604741</v>
+        <v>241.4760184604739</v>
       </c>
       <c r="P14" t="n">
-        <v>206.094195010879</v>
+        <v>206.0941950108789</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.7681574498209</v>
+        <v>154.7681574498208</v>
       </c>
       <c r="R14" t="n">
-        <v>90.02748221835438</v>
+        <v>90.02748221835432</v>
       </c>
       <c r="S14" t="n">
-        <v>32.65876665752494</v>
+        <v>32.65876665752491</v>
       </c>
       <c r="T14" t="n">
-        <v>6.273779530150975</v>
+        <v>6.27377953015097</v>
       </c>
       <c r="U14" t="n">
-        <v>0.114655022824004</v>
+        <v>0.1146550228240039</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7668230683329474</v>
+        <v>0.766823068332947</v>
       </c>
       <c r="H15" t="n">
-        <v>7.405896475741889</v>
+        <v>7.405896475741883</v>
       </c>
       <c r="I15" t="n">
-        <v>26.40158371234052</v>
+        <v>26.4015837123405</v>
       </c>
       <c r="J15" t="n">
-        <v>72.44796366210537</v>
+        <v>72.44796366210532</v>
       </c>
       <c r="K15" t="n">
         <v>123.8251092404128</v>
       </c>
       <c r="L15" t="n">
-        <v>166.4981403413271</v>
+        <v>166.4981403413269</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2954765683963</v>
+        <v>194.2954765683962</v>
       </c>
       <c r="N15" t="n">
-        <v>199.4378996889274</v>
+        <v>199.4378996889273</v>
       </c>
       <c r="O15" t="n">
-        <v>182.4467148590237</v>
+        <v>182.4467148590236</v>
       </c>
       <c r="P15" t="n">
-        <v>146.4295734608766</v>
+        <v>146.4295734608765</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.88429202088642</v>
+        <v>97.88429202088636</v>
       </c>
       <c r="R15" t="n">
-        <v>47.61029541807547</v>
+        <v>47.61029541807545</v>
       </c>
       <c r="S15" t="n">
-        <v>14.24340216837733</v>
+        <v>14.24340216837732</v>
       </c>
       <c r="T15" t="n">
-        <v>3.090835086833239</v>
+        <v>3.090835086833237</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05044888607453604</v>
+        <v>0.05044888607453601</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6428787012339781</v>
+        <v>0.6428787012339776</v>
       </c>
       <c r="H16" t="n">
-        <v>5.715776089153008</v>
+        <v>5.715776089153005</v>
       </c>
       <c r="I16" t="n">
-        <v>19.33311585165454</v>
+        <v>19.33311585165453</v>
       </c>
       <c r="J16" t="n">
-        <v>45.45152417724224</v>
+        <v>45.45152417724221</v>
       </c>
       <c r="K16" t="n">
-        <v>74.69081637972943</v>
+        <v>74.69081637972938</v>
       </c>
       <c r="L16" t="n">
-        <v>95.57852981800436</v>
+        <v>95.57852981800428</v>
       </c>
       <c r="M16" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N16" t="n">
-        <v>98.3779743442869</v>
+        <v>98.37797434428684</v>
       </c>
       <c r="O16" t="n">
-        <v>90.86798224350812</v>
+        <v>90.86798224350807</v>
       </c>
       <c r="P16" t="n">
-        <v>77.75325673833491</v>
+        <v>77.75325673833485</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.83232470060156</v>
+        <v>53.83232470060153</v>
       </c>
       <c r="R16" t="n">
-        <v>28.90616414821141</v>
+        <v>28.90616414821138</v>
       </c>
       <c r="S16" t="n">
         <v>11.20362245695941</v>
       </c>
       <c r="T16" t="n">
-        <v>2.746845359817905</v>
+        <v>2.746845359817903</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03506611097639884</v>
+        <v>0.03506611097639882</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32259,13 +32259,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R17" t="n">
-        <v>90.02748221835435</v>
+        <v>90.02748221835434</v>
       </c>
       <c r="S17" t="n">
         <v>32.65876665752492</v>
       </c>
       <c r="T17" t="n">
-        <v>6.273779530150972</v>
+        <v>6.273779530150971</v>
       </c>
       <c r="U17" t="n">
         <v>0.114655022824004</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7668230683329472</v>
+        <v>0.7668230683329471</v>
       </c>
       <c r="H18" t="n">
-        <v>7.405896475741886</v>
+        <v>7.405896475741885</v>
       </c>
       <c r="I18" t="n">
         <v>26.40158371234051</v>
       </c>
       <c r="J18" t="n">
-        <v>72.44796366210535</v>
+        <v>72.44796366210534</v>
       </c>
       <c r="K18" t="n">
         <v>123.8251092404128</v>
@@ -32326,7 +32326,7 @@
         <v>194.2954765683963</v>
       </c>
       <c r="N18" t="n">
-        <v>199.4378996889274</v>
+        <v>199.4378996889273</v>
       </c>
       <c r="O18" t="n">
         <v>182.4467148590236</v>
@@ -32335,19 +32335,19 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.88429202088639</v>
+        <v>97.88429202088638</v>
       </c>
       <c r="R18" t="n">
-        <v>47.61029541807546</v>
+        <v>47.61029541807545</v>
       </c>
       <c r="S18" t="n">
         <v>14.24340216837732</v>
       </c>
       <c r="T18" t="n">
-        <v>3.090835086833238</v>
+        <v>3.090835086833237</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05044888607453602</v>
+        <v>0.05044888607453601</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6428787012339778</v>
+        <v>0.6428787012339777</v>
       </c>
       <c r="H19" t="n">
-        <v>5.715776089153007</v>
+        <v>5.715776089153006</v>
       </c>
       <c r="I19" t="n">
         <v>19.33311585165454</v>
       </c>
       <c r="J19" t="n">
-        <v>45.45152417724223</v>
+        <v>45.45152417724222</v>
       </c>
       <c r="K19" t="n">
-        <v>74.69081637972941</v>
+        <v>74.6908163797294</v>
       </c>
       <c r="L19" t="n">
-        <v>95.57852981800431</v>
+        <v>95.5785298180043</v>
       </c>
       <c r="M19" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N19" t="n">
-        <v>98.37797434428687</v>
+        <v>98.37797434428686</v>
       </c>
       <c r="O19" t="n">
-        <v>90.8679822435081</v>
+        <v>90.86798224350808</v>
       </c>
       <c r="P19" t="n">
-        <v>77.75325673833488</v>
+        <v>77.75325673833487</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.83232470060155</v>
+        <v>53.83232470060154</v>
       </c>
       <c r="R19" t="n">
-        <v>28.9061641482114</v>
+        <v>28.90616414821139</v>
       </c>
       <c r="S19" t="n">
         <v>11.20362245695941</v>
@@ -32469,16 +32469,16 @@
         <v>14.67763440620414</v>
       </c>
       <c r="I20" t="n">
-        <v>55.25297209278025</v>
+        <v>55.25297209278023</v>
       </c>
       <c r="J20" t="n">
-        <v>121.6400217926103</v>
+        <v>121.6400217926102</v>
       </c>
       <c r="K20" t="n">
         <v>182.3068607443614</v>
       </c>
       <c r="L20" t="n">
-        <v>226.1677814287379</v>
+        <v>226.1677814287378</v>
       </c>
       <c r="M20" t="n">
         <v>251.6552347055676</v>
@@ -32487,7 +32487,7 @@
         <v>255.7272795005514</v>
       </c>
       <c r="O20" t="n">
-        <v>241.4760184604741</v>
+        <v>241.476018460474</v>
       </c>
       <c r="P20" t="n">
         <v>206.094195010879</v>
@@ -32496,13 +32496,13 @@
         <v>154.7681574498209</v>
       </c>
       <c r="R20" t="n">
-        <v>90.02748221835436</v>
+        <v>90.02748221835435</v>
       </c>
       <c r="S20" t="n">
-        <v>32.65876665752493</v>
+        <v>32.65876665752492</v>
       </c>
       <c r="T20" t="n">
-        <v>6.273779530150974</v>
+        <v>6.273779530150972</v>
       </c>
       <c r="U20" t="n">
         <v>0.114655022824004</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7668230683329473</v>
+        <v>0.7668230683329472</v>
       </c>
       <c r="H21" t="n">
-        <v>7.405896475741887</v>
+        <v>7.405896475741886</v>
       </c>
       <c r="I21" t="n">
         <v>26.40158371234051</v>
@@ -32572,10 +32572,10 @@
         <v>146.4295734608766</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.88429202088641</v>
+        <v>97.88429202088639</v>
       </c>
       <c r="R21" t="n">
-        <v>47.61029541807547</v>
+        <v>47.61029541807546</v>
       </c>
       <c r="S21" t="n">
         <v>14.24340216837732</v>
@@ -32584,7 +32584,7 @@
         <v>3.090835086833238</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05044888607453603</v>
+        <v>0.05044888607453602</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6428787012339779</v>
+        <v>0.6428787012339778</v>
       </c>
       <c r="H22" t="n">
-        <v>5.715776089153008</v>
+        <v>5.715776089153007</v>
       </c>
       <c r="I22" t="n">
         <v>19.33311585165454</v>
@@ -32636,19 +32636,19 @@
         <v>74.69081637972941</v>
       </c>
       <c r="L22" t="n">
-        <v>95.57852981800433</v>
+        <v>95.57852981800431</v>
       </c>
       <c r="M22" t="n">
         <v>100.7741585943407</v>
       </c>
       <c r="N22" t="n">
-        <v>98.37797434428688</v>
+        <v>98.37797434428687</v>
       </c>
       <c r="O22" t="n">
-        <v>90.86798224350811</v>
+        <v>90.8679822435081</v>
       </c>
       <c r="P22" t="n">
-        <v>77.7532567383349</v>
+        <v>77.75325673833488</v>
       </c>
       <c r="Q22" t="n">
         <v>53.83232470060155</v>
@@ -32660,7 +32660,7 @@
         <v>11.20362245695941</v>
       </c>
       <c r="T22" t="n">
-        <v>2.746845359817905</v>
+        <v>2.746845359817904</v>
       </c>
       <c r="U22" t="n">
         <v>0.03506611097639883</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.856838359871942</v>
+        <v>2.856838359871941</v>
       </c>
       <c r="H44" t="n">
         <v>29.25759585303853</v>
@@ -34371,7 +34371,7 @@
         <v>242.4705847461814</v>
       </c>
       <c r="K44" t="n">
-        <v>363.4005525195608</v>
+        <v>363.4005525195607</v>
       </c>
       <c r="L44" t="n">
         <v>450.8305194754918</v>
@@ -34380,13 +34380,13 @@
         <v>501.6358186578644</v>
       </c>
       <c r="N44" t="n">
-        <v>509.7528106478507</v>
+        <v>509.7528106478506</v>
       </c>
       <c r="O44" t="n">
-        <v>481.345124206874</v>
+        <v>481.3451242068739</v>
       </c>
       <c r="P44" t="n">
-        <v>410.8169271975354</v>
+        <v>410.8169271975353</v>
       </c>
       <c r="Q44" t="n">
         <v>308.5064034346213</v>
@@ -34395,7 +34395,7 @@
         <v>179.455872623306</v>
       </c>
       <c r="S44" t="n">
-        <v>65.10020412558194</v>
+        <v>65.10020412558193</v>
       </c>
       <c r="T44" t="n">
         <v>12.50580992033943</v>
@@ -34450,10 +34450,10 @@
         <v>144.4138191850272</v>
       </c>
       <c r="K45" t="n">
-        <v>246.8262188819065</v>
+        <v>246.8262188819064</v>
       </c>
       <c r="L45" t="n">
-        <v>331.8883115340408</v>
+        <v>331.8883115340407</v>
       </c>
       <c r="M45" t="n">
         <v>387.2980053998895</v>
@@ -34462,25 +34462,25 @@
         <v>397.5486311616419</v>
       </c>
       <c r="O45" t="n">
-        <v>363.6793300835695</v>
+        <v>363.6793300835694</v>
       </c>
       <c r="P45" t="n">
         <v>291.8847249281702</v>
       </c>
       <c r="Q45" t="n">
-        <v>195.1172087443031</v>
+        <v>195.117208744303</v>
       </c>
       <c r="R45" t="n">
-        <v>94.90376604536679</v>
+        <v>94.90376604536677</v>
       </c>
       <c r="S45" t="n">
         <v>28.39202099478157</v>
       </c>
       <c r="T45" t="n">
-        <v>6.161102076553547</v>
+        <v>6.161102076553546</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1005620578327566</v>
+        <v>0.1005620578327565</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,13 +34523,13 @@
         <v>11.39351629661881</v>
       </c>
       <c r="I46" t="n">
-        <v>38.53757863927914</v>
+        <v>38.53757863927913</v>
       </c>
       <c r="J46" t="n">
-        <v>90.60058920123149</v>
+        <v>90.60058920123147</v>
       </c>
       <c r="K46" t="n">
-        <v>148.8845994588837</v>
+        <v>148.8845994588836</v>
       </c>
       <c r="L46" t="n">
         <v>190.5210281338485</v>
@@ -34541,7 +34541,7 @@
         <v>196.1012881605157</v>
       </c>
       <c r="O46" t="n">
-        <v>181.1312795294777</v>
+        <v>181.1312795294776</v>
       </c>
       <c r="P46" t="n">
         <v>154.9891010329411</v>
@@ -34550,16 +34550,16 @@
         <v>107.30641984474</v>
       </c>
       <c r="R46" t="n">
-        <v>57.61997096429097</v>
+        <v>57.61997096429096</v>
       </c>
       <c r="S46" t="n">
-        <v>22.33268991883255</v>
+        <v>22.33268991883254</v>
       </c>
       <c r="T46" t="n">
-        <v>5.475411717188992</v>
+        <v>5.475411717188991</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06989887298539149</v>
+        <v>0.06989887298539148</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.915681512394372</v>
+        <v>1.915681512394528</v>
       </c>
       <c r="K11" t="n">
-        <v>36.18427854321442</v>
+        <v>36.18427854321465</v>
       </c>
       <c r="L11" t="n">
-        <v>78.00986630240718</v>
+        <v>69.11822666832396</v>
       </c>
       <c r="M11" t="n">
-        <v>97.70040981357121</v>
+        <v>97.70040981357155</v>
       </c>
       <c r="N11" t="n">
-        <v>102.3105727145051</v>
+        <v>102.3105727145054</v>
       </c>
       <c r="O11" t="n">
-        <v>87.85349807162405</v>
+        <v>87.85349807162433</v>
       </c>
       <c r="P11" t="n">
-        <v>52.32875576048568</v>
+        <v>61.22039539456879</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.668145293805111</v>
+        <v>7.66814529380531</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.146945035215</v>
+        <v>32.14694503521515</v>
       </c>
       <c r="L12" t="n">
-        <v>73.63932442659173</v>
+        <v>73.63932442659193</v>
       </c>
       <c r="M12" t="n">
-        <v>98.64267312386993</v>
+        <v>98.64267312387018</v>
       </c>
       <c r="N12" t="n">
-        <v>110.7136725703532</v>
+        <v>110.7136725703535</v>
       </c>
       <c r="O12" t="n">
-        <v>86.69262630688048</v>
+        <v>86.69262630688074</v>
       </c>
       <c r="P12" t="n">
-        <v>56.88504823676971</v>
+        <v>56.8850482367699</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.250918312327073</v>
+        <v>5.250918312327187</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="L13" t="n">
-        <v>6.297024494867443</v>
+        <v>6.297024494867571</v>
       </c>
       <c r="M13" t="n">
-        <v>8.778606148334788</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="N13" t="n">
-        <v>40.98208605686195</v>
+        <v>106.1449774468182</v>
       </c>
       <c r="O13" t="n">
-        <v>117.1764020234406</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>117.1764020234406</v>
+        <v>117.1764020234409</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.38428524162122</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.960183850264187</v>
+        <v>3.960183850264606</v>
       </c>
       <c r="K14" t="n">
-        <v>39.24845756512408</v>
+        <v>39.24845756512397</v>
       </c>
       <c r="L14" t="n">
-        <v>72.91961169824623</v>
+        <v>72.91961169824609</v>
       </c>
       <c r="M14" t="n">
-        <v>101.9301831078404</v>
+        <v>101.9301831078403</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6087881627674</v>
+        <v>106.6087881627672</v>
       </c>
       <c r="O14" t="n">
-        <v>91.91218103637769</v>
+        <v>91.91218103637755</v>
       </c>
       <c r="P14" t="n">
-        <v>55.79274776995385</v>
+        <v>55.79274776995373</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.26945903142877</v>
+        <v>10.26945903142868</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>34.22817390707949</v>
+        <v>34.22817390707942</v>
       </c>
       <c r="L15" t="n">
-        <v>76.43779348440883</v>
+        <v>76.43779348440872</v>
       </c>
       <c r="M15" t="n">
-        <v>101.9083545190844</v>
+        <v>101.9083545190843</v>
       </c>
       <c r="N15" t="n">
-        <v>114.0657868347608</v>
+        <v>114.0657868347606</v>
       </c>
       <c r="O15" t="n">
-        <v>89.75915597013478</v>
+        <v>89.75915597013467</v>
       </c>
       <c r="P15" t="n">
-        <v>59.34620864156196</v>
+        <v>59.34620864156187</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.896138864972428</v>
+        <v>6.896138864972372</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.37703670508317</v>
+        <v>15.37703670508314</v>
       </c>
       <c r="K16" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="L16" t="n">
-        <v>121.8916316581079</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="M16" t="n">
-        <v>121.8916316581079</v>
+        <v>10.4723990283974</v>
       </c>
       <c r="N16" t="n">
-        <v>43.42935958203176</v>
+        <v>33.82819280344448</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8712322498103191</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.28908871075404</v>
+        <v>57.28908871075402</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.960183850264144</v>
+        <v>3.960183850264116</v>
       </c>
       <c r="K17" t="n">
-        <v>39.24845756512403</v>
+        <v>39.248457565124</v>
       </c>
       <c r="L17" t="n">
-        <v>72.91961169824614</v>
+        <v>72.91961169824611</v>
       </c>
       <c r="M17" t="n">
         <v>101.9301831078403</v>
@@ -35898,13 +35898,13 @@
         <v>106.6087881627673</v>
       </c>
       <c r="O17" t="n">
-        <v>91.9121810363776</v>
+        <v>91.91218103637758</v>
       </c>
       <c r="P17" t="n">
-        <v>55.79274776995379</v>
+        <v>55.79274776995376</v>
       </c>
       <c r="Q17" t="n">
-        <v>10.26945903142874</v>
+        <v>10.26945903142871</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.22817390707945</v>
+        <v>34.22817390707944</v>
       </c>
       <c r="L18" t="n">
-        <v>76.43779348440877</v>
+        <v>76.43779348440874</v>
       </c>
       <c r="M18" t="n">
-        <v>101.9083545190844</v>
+        <v>101.9083545190843</v>
       </c>
       <c r="N18" t="n">
         <v>114.0657868347607</v>
       </c>
       <c r="O18" t="n">
-        <v>89.75915597013473</v>
+        <v>89.7591559701347</v>
       </c>
       <c r="P18" t="n">
-        <v>59.34620864156193</v>
+        <v>59.3462086415619</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.8961388649724</v>
+        <v>6.896138864972386</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>15.37703670508315</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="L19" t="n">
-        <v>59.67762853692513</v>
+        <v>7.903490235199413</v>
       </c>
       <c r="M19" t="n">
-        <v>121.8916316581078</v>
+        <v>78.30381986551117</v>
       </c>
       <c r="N19" t="n">
-        <v>121.8916316581078</v>
+        <v>15.38237044188529</v>
       </c>
       <c r="O19" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.28908871075403</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.960183850264158</v>
+        <v>3.960183850264144</v>
       </c>
       <c r="K20" t="n">
-        <v>39.24845756512406</v>
+        <v>39.24845756512403</v>
       </c>
       <c r="L20" t="n">
-        <v>72.9196116982462</v>
+        <v>72.91961169824614</v>
       </c>
       <c r="M20" t="n">
-        <v>101.9301831078404</v>
+        <v>101.9301831078403</v>
       </c>
       <c r="N20" t="n">
-        <v>106.6087881627674</v>
+        <v>106.6087881627673</v>
       </c>
       <c r="O20" t="n">
-        <v>91.91218103637766</v>
+        <v>91.9121810363776</v>
       </c>
       <c r="P20" t="n">
-        <v>55.79274776995382</v>
+        <v>55.79274776995379</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.26945903142877</v>
+        <v>10.26945903142874</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>34.22817390707948</v>
+        <v>34.22817390707945</v>
       </c>
       <c r="L21" t="n">
-        <v>76.4377934844088</v>
+        <v>76.43779348440877</v>
       </c>
       <c r="M21" t="n">
         <v>101.9083545190844</v>
@@ -36214,13 +36214,13 @@
         <v>114.0657868347607</v>
       </c>
       <c r="O21" t="n">
-        <v>89.75915597013464</v>
+        <v>89.75915597013473</v>
       </c>
       <c r="P21" t="n">
-        <v>59.34620864156196</v>
+        <v>59.34620864156193</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.896138864972414</v>
+        <v>6.8961388649724</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>15.37703670508316</v>
       </c>
       <c r="K22" t="n">
-        <v>100.7184482927857</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="L22" t="n">
-        <v>121.8916316581078</v>
+        <v>100.7184482927856</v>
       </c>
       <c r="M22" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="N22" t="n">
-        <v>121.8916316581078</v>
+        <v>121.8916316581077</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8712322498103049</v>
+        <v>0.8712322498102907</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>61.96936185169388</v>
+        <v>258.6713769827317</v>
       </c>
       <c r="K24" t="n">
-        <v>261.1366997379302</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L24" t="n">
         <v>241.8279646771226</v>
@@ -36457,7 +36457,7 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q24" t="n">
-        <v>431.8496244563137</v>
+        <v>339.0550255146329</v>
       </c>
       <c r="R24" t="n">
         <v>71.22589337445069</v>
@@ -36618,7 +36618,7 @@
         <v>164.0077050162292</v>
       </c>
       <c r="R26" t="n">
-        <v>39.32527304412014</v>
+        <v>39.32527304412021</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>3.734095484268394</v>
       </c>
       <c r="J27" t="n">
-        <v>174.896856131872</v>
+        <v>258.6713769827317</v>
       </c>
       <c r="K27" t="n">
-        <v>543.2094837470686</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L27" t="n">
         <v>241.8279646771226</v>
@@ -36694,10 +36694,10 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.1290555883891</v>
+        <v>335.3209300303647</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445069</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>389.0510226006426</v>
       </c>
       <c r="N28" t="n">
-        <v>381.1413225354745</v>
+        <v>381.1413225354738</v>
       </c>
       <c r="O28" t="n">
         <v>345.4795290665566</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>258.6713769827317</v>
+        <v>236.8905829467113</v>
       </c>
       <c r="K30" t="n">
         <v>157.2292835485731</v>
@@ -36931,10 +36931,10 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q30" t="n">
-        <v>339.0550255146329</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R30" t="n">
-        <v>71.22589337445069</v>
+        <v>0.2120884687902134</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.52610172907188</v>
+        <v>60.52610172907242</v>
       </c>
       <c r="K31" t="n">
         <v>231.5462571456936</v>
@@ -37092,7 +37092,7 @@
         <v>164.0077050162292</v>
       </c>
       <c r="R32" t="n">
-        <v>39.32527304412014</v>
+        <v>39.32527304412021</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.734095484268394</v>
       </c>
       <c r="J33" t="n">
         <v>61.96936185169388</v>
@@ -37153,7 +37153,7 @@
         <v>157.2292835485731</v>
       </c>
       <c r="L33" t="n">
-        <v>416.74918577214</v>
+        <v>241.8279646771226</v>
       </c>
       <c r="M33" t="n">
         <v>294.9108833505776</v>
@@ -37165,7 +37165,7 @@
         <v>270.9917711946806</v>
       </c>
       <c r="P33" t="n">
-        <v>204.8013601088556</v>
+        <v>375.9884857196045</v>
       </c>
       <c r="Q33" t="n">
         <v>431.8496244563137</v>
@@ -37384,10 +37384,10 @@
         <v>3.734095484268394</v>
       </c>
       <c r="J36" t="n">
-        <v>61.96936185169388</v>
+        <v>233.1564874624429</v>
       </c>
       <c r="K36" t="n">
-        <v>543.2094837470686</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L36" t="n">
         <v>241.8279646771226</v>
@@ -37399,13 +37399,13 @@
         <v>312.1765183074752</v>
       </c>
       <c r="O36" t="n">
-        <v>383.9192654748586</v>
+        <v>270.9917711946806</v>
       </c>
       <c r="P36" t="n">
         <v>204.8013601088556</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.1290555883891</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R36" t="n">
         <v>0.2120884687902134</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.734095484268394</v>
       </c>
       <c r="J39" t="n">
-        <v>61.96936185169388</v>
+        <v>258.6713769827317</v>
       </c>
       <c r="K39" t="n">
-        <v>261.1366997379297</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L39" t="n">
         <v>241.8279646771226</v>
@@ -37642,10 +37642,10 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q39" t="n">
-        <v>431.8496244563137</v>
+        <v>406.334734936025</v>
       </c>
       <c r="R39" t="n">
-        <v>71.22589337445069</v>
+        <v>0.2120884687902134</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>356.3065229558686</v>
       </c>
       <c r="M40" t="n">
-        <v>389.0510226006426</v>
+        <v>389.051022600642</v>
       </c>
       <c r="N40" t="n">
         <v>381.1413225354745</v>
@@ -37718,7 +37718,7 @@
         <v>345.4795290665566</v>
       </c>
       <c r="P40" t="n">
-        <v>276.0761371708983</v>
+        <v>276.0761371708993</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7631838548925</v>
@@ -37861,7 +37861,7 @@
         <v>258.6713769827317</v>
       </c>
       <c r="K42" t="n">
-        <v>228.4019974566156</v>
+        <v>157.2292835485731</v>
       </c>
       <c r="L42" t="n">
         <v>241.8279646771226</v>
@@ -37870,7 +37870,7 @@
         <v>294.9108833505776</v>
       </c>
       <c r="N42" t="n">
-        <v>543.2094837470686</v>
+        <v>312.1765183074752</v>
       </c>
       <c r="O42" t="n">
         <v>270.9917711946806</v>
@@ -37879,10 +37879,10 @@
         <v>204.8013601088556</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.1290555883891</v>
+        <v>335.3209300303647</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445069</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>60.52610172907242</v>
       </c>
       <c r="K43" t="n">
-        <v>231.5462571456936</v>
+        <v>231.5462571456931</v>
       </c>
       <c r="L43" t="n">
         <v>356.3065229558686</v>
@@ -38025,22 +38025,22 @@
         <v>297.5823497450001</v>
       </c>
       <c r="M44" t="n">
-        <v>351.9107670601372</v>
+        <v>351.9107670601371</v>
       </c>
       <c r="N44" t="n">
         <v>360.6343193100665</v>
       </c>
       <c r="O44" t="n">
-        <v>331.7812867827776</v>
+        <v>331.7812867827775</v>
       </c>
       <c r="P44" t="n">
-        <v>260.5154799566102</v>
+        <v>260.5154799566101</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.0077050162292</v>
+        <v>164.0077050162291</v>
       </c>
       <c r="R44" t="n">
-        <v>39.32527304412014</v>
+        <v>39.32527304412011</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.734095484268394</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>61.96936185169388</v>
+        <v>165.8767780410507</v>
       </c>
       <c r="K45" t="n">
         <v>157.2292835485731</v>
       </c>
       <c r="L45" t="n">
-        <v>241.8279646771226</v>
+        <v>241.8279646771225</v>
       </c>
       <c r="M45" t="n">
-        <v>294.9108833505776</v>
+        <v>294.9108833505775</v>
       </c>
       <c r="N45" t="n">
         <v>312.1765183074752</v>
       </c>
       <c r="O45" t="n">
-        <v>431.4913420351407</v>
+        <v>270.9917711946806</v>
       </c>
       <c r="P45" t="n">
-        <v>543.2094837470685</v>
+        <v>204.8013601088556</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.1290555883891</v>
+        <v>431.8496244563137</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2120884687902134</v>
+        <v>71.22589337445066</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.52610172907242</v>
+        <v>60.52610172907151</v>
       </c>
       <c r="K46" t="n">
         <v>231.5462571456936</v>
       </c>
       <c r="L46" t="n">
-        <v>356.3065229558686</v>
+        <v>356.3065229558685</v>
       </c>
       <c r="M46" t="n">
         <v>389.0510226006426</v>
@@ -38189,7 +38189,7 @@
         <v>381.1413225354745</v>
       </c>
       <c r="O46" t="n">
-        <v>345.4795290665566</v>
+        <v>345.4795290665565</v>
       </c>
       <c r="P46" t="n">
         <v>276.0761371708993</v>
